--- a/regression/Plots_PH1_2022-06-10/Regression_parameters.xlsx
+++ b/regression/Plots_PH1_2022-06-10/Regression_parameters.xlsx
@@ -786,7 +786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH82"/>
+  <dimension ref="A1:BH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,101 +1121,101 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>U3</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>-22.5</v>
+        <v>-40.5167</v>
       </c>
       <c r="H3" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I3" t="n">
         <v>9.9</v>
       </c>
       <c r="J3" t="n">
-        <v>999981.0039</v>
+        <v>700</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3861</v>
+        <v>5.6032</v>
       </c>
       <c r="L3" t="n">
-        <v>113.5791</v>
+        <v>2.9999</v>
       </c>
       <c r="M3" t="n">
-        <v>0.99603</v>
+        <v>0.70185</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1323</v>
+        <v>63.1914</v>
       </c>
       <c r="O3" t="n">
-        <v>0.10665</v>
+        <v>0.039256</v>
       </c>
       <c r="P3" t="n">
-        <v>0.12092</v>
+        <v>2.4079</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2204e-14</v>
+        <v>0.9987200000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3202</v>
+        <v>40</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03</v>
+        <v>0.045036</v>
       </c>
       <c r="T3" t="n">
-        <v>3.4464</v>
+        <v>0.0068878</v>
       </c>
       <c r="U3" t="n">
-        <v>0.47193</v>
+        <v>0.43168</v>
       </c>
       <c r="V3" t="n">
-        <v>44.89</v>
+        <v>1995.098</v>
       </c>
       <c r="W3" t="n">
-        <v>0.02</v>
+        <v>0.018084</v>
       </c>
       <c r="X3" t="n">
-        <v>0.3515</v>
+        <v>0.0056711</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.62908</v>
+        <v>0.30587</v>
       </c>
       <c r="Z3" t="n">
         <v>0.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>273000</v>
+        <v>434000</v>
       </c>
       <c r="AE3" t="n">
-        <v>207.61</v>
+        <v>341.735</v>
       </c>
       <c r="AF3" t="n">
         <v>0.22</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.97698</v>
+        <v>1.2842</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="AR3" t="n">
-        <v>4.059373750006674</v>
+        <v>4.4573516854008</v>
       </c>
       <c r="AS3" t="n">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="BH3" t="n">
-        <v>5.456101001093093</v>
+        <v>2.723503620974602</v>
       </c>
     </row>
     <row r="4">
@@ -1296,17 +1296,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>U3</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>-22.5</v>
+        <v>-40.0333</v>
       </c>
       <c r="H4" t="n">
         <v>42</v>
@@ -1315,82 +1315,82 @@
         <v>9.9</v>
       </c>
       <c r="J4" t="n">
-        <v>999981.0039</v>
+        <v>700</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2211</v>
+        <v>5.59</v>
       </c>
       <c r="L4" t="n">
-        <v>113.5791</v>
+        <v>2.9665</v>
       </c>
       <c r="M4" t="n">
-        <v>0.99603</v>
+        <v>0.70185</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1409</v>
+        <v>61.339</v>
       </c>
       <c r="O4" t="n">
-        <v>0.10586</v>
+        <v>0.040406</v>
       </c>
       <c r="P4" t="n">
-        <v>0.12092</v>
+        <v>2.4079</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2204e-14</v>
+        <v>0.9987200000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>1.1718</v>
+        <v>40</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03</v>
+        <v>0.045036</v>
       </c>
       <c r="T4" t="n">
-        <v>3.2993</v>
+        <v>0.0068878</v>
       </c>
       <c r="U4" t="n">
-        <v>0.45111</v>
+        <v>0.43168</v>
       </c>
       <c r="V4" t="n">
-        <v>44.89</v>
+        <v>1995.098</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02</v>
+        <v>0.018084</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3515</v>
+        <v>0.0056711</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.62908</v>
+        <v>0.30587</v>
       </c>
       <c r="Z4" t="n">
         <v>0.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>273000</v>
+        <v>434000</v>
       </c>
       <c r="AE4" t="n">
-        <v>207.61</v>
+        <v>341.735</v>
       </c>
       <c r="AF4" t="n">
         <v>0.22</v>
       </c>
       <c r="AG4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>1</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.97698</v>
+        <v>1.2842</v>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
@@ -1403,10 +1403,10 @@
         </is>
       </c>
       <c r="AR4" t="n">
-        <v>33.08511035714278</v>
+        <v>1.144245831702788</v>
       </c>
       <c r="AS4" t="n">
-        <v>-46.44117857142846</v>
+        <v>5.138836196905809</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="BH4" t="n">
-        <v>0.2185348597033158</v>
+        <v>2.65857686392041</v>
       </c>
     </row>
     <row r="5">
@@ -1471,101 +1471,101 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>U3</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>-22</v>
+        <v>-39.55</v>
       </c>
       <c r="H5" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I5" t="n">
         <v>9.9</v>
       </c>
       <c r="J5" t="n">
-        <v>999981.0039</v>
+        <v>700</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3553</v>
+        <v>5.5769</v>
       </c>
       <c r="L5" t="n">
-        <v>111.0596</v>
+        <v>2.9331</v>
       </c>
       <c r="M5" t="n">
-        <v>0.99603</v>
+        <v>0.70185</v>
       </c>
       <c r="N5" t="n">
-        <v>1.1338</v>
+        <v>59.5921</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1065</v>
+        <v>0.041557</v>
       </c>
       <c r="P5" t="n">
-        <v>0.12092</v>
+        <v>2.4079</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2204e-14</v>
+        <v>0.9987200000000001</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3202</v>
+        <v>40</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03</v>
+        <v>0.045036</v>
       </c>
       <c r="T5" t="n">
-        <v>3.4464</v>
+        <v>0.0068878</v>
       </c>
       <c r="U5" t="n">
-        <v>0.47193</v>
+        <v>0.43168</v>
       </c>
       <c r="V5" t="n">
-        <v>44.89</v>
+        <v>1995.098</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02</v>
+        <v>0.018084</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3515</v>
+        <v>0.0056711</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.62908</v>
+        <v>0.30587</v>
       </c>
       <c r="Z5" t="n">
         <v>0.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>273000</v>
+        <v>434000</v>
       </c>
       <c r="AE5" t="n">
-        <v>207.61</v>
+        <v>341.735</v>
       </c>
       <c r="AF5" t="n">
         <v>0.22</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
         <v>1</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.97698</v>
+        <v>1.2842</v>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
@@ -1578,13 +1578,13 @@
         </is>
       </c>
       <c r="AR5" t="n">
-        <v>-23.75068283009335</v>
+        <v>-4.880510354374826</v>
       </c>
       <c r="AS5" t="n">
-        <v>78.93234881295039</v>
+        <v>12.08767024190333</v>
       </c>
       <c r="AT5" t="n">
-        <v>-1.671846842759638</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>1</v>
@@ -1616,16 +1616,16 @@
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BH5" t="n">
-        <v>0.2185348597464289</v>
+        <v>0.886560074781514</v>
       </c>
     </row>
     <row r="6">
@@ -1646,17 +1646,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>U3</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>-22</v>
+        <v>-39.0667</v>
       </c>
       <c r="H6" t="n">
         <v>42</v>
@@ -1665,82 +1665,82 @@
         <v>9.9</v>
       </c>
       <c r="J6" t="n">
-        <v>999981.0039</v>
+        <v>700</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1939</v>
+        <v>5.5637</v>
       </c>
       <c r="L6" t="n">
-        <v>111.0596</v>
+        <v>2.8997</v>
       </c>
       <c r="M6" t="n">
-        <v>0.99603</v>
+        <v>0.70185</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1423</v>
+        <v>57.942</v>
       </c>
       <c r="O6" t="n">
-        <v>0.10573</v>
+        <v>0.042708</v>
       </c>
       <c r="P6" t="n">
-        <v>0.12092</v>
+        <v>2.4079</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2204e-14</v>
+        <v>0.9987200000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>1.1718</v>
+        <v>40</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03</v>
+        <v>0.045036</v>
       </c>
       <c r="T6" t="n">
-        <v>3.2993</v>
+        <v>0.0068878</v>
       </c>
       <c r="U6" t="n">
-        <v>0.45111</v>
+        <v>0.43168</v>
       </c>
       <c r="V6" t="n">
-        <v>44.89</v>
+        <v>1995.098</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02</v>
+        <v>0.018084</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3515</v>
+        <v>0.0056711</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.62908</v>
+        <v>0.30587</v>
       </c>
       <c r="Z6" t="n">
         <v>0.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>273000</v>
+        <v>434000</v>
       </c>
       <c r="AE6" t="n">
-        <v>207.61</v>
+        <v>341.735</v>
       </c>
       <c r="AF6" t="n">
         <v>0.22</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.97698</v>
+        <v>1.2842</v>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
@@ -1753,16 +1753,16 @@
         </is>
       </c>
       <c r="AR6" t="n">
-        <v>-3.693114939642687</v>
+        <v>92.07995745730085</v>
       </c>
       <c r="AS6" t="n">
-        <v>10.30680561528942</v>
+        <v>-146.8467431695306</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>-97.04584448318346</v>
       </c>
       <c r="AU6" t="n">
-        <v>1</v>
+        <v>164.7737964312615</v>
       </c>
       <c r="AV6" t="n">
         <v>1</v>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="BH6" t="n">
-        <v>0.8547445675427759</v>
+        <v>0.5046251301584253</v>
       </c>
     </row>
     <row r="7">
@@ -1821,101 +1821,101 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>U3</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>-21.5</v>
+        <v>-38.5833</v>
       </c>
       <c r="H7" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I7" t="n">
         <v>9.9</v>
       </c>
       <c r="J7" t="n">
-        <v>999981.0039</v>
+        <v>700</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3245</v>
+        <v>5.5506</v>
       </c>
       <c r="L7" t="n">
-        <v>108.54</v>
+        <v>2.8663</v>
       </c>
       <c r="M7" t="n">
-        <v>0.99603</v>
+        <v>0.70185</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1354</v>
+        <v>56.3807</v>
       </c>
       <c r="O7" t="n">
-        <v>0.10635</v>
+        <v>0.043859</v>
       </c>
       <c r="P7" t="n">
-        <v>0.12092</v>
+        <v>2.4079</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2204e-14</v>
+        <v>0.9987200000000001</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3202</v>
+        <v>40</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03</v>
+        <v>0.045036</v>
       </c>
       <c r="T7" t="n">
-        <v>3.4464</v>
+        <v>0.0068878</v>
       </c>
       <c r="U7" t="n">
-        <v>0.47193</v>
+        <v>0.43168</v>
       </c>
       <c r="V7" t="n">
-        <v>44.89</v>
+        <v>1995.098</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02</v>
+        <v>0.018084</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3515</v>
+        <v>0.0056711</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.62908</v>
+        <v>0.30587</v>
       </c>
       <c r="Z7" t="n">
         <v>0.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>273000</v>
+        <v>434000</v>
       </c>
       <c r="AE7" t="n">
-        <v>207.61</v>
+        <v>341.735</v>
       </c>
       <c r="AF7" t="n">
         <v>0.22</v>
       </c>
       <c r="AG7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.97698</v>
+        <v>1.2842</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -1928,16 +1928,16 @@
         </is>
       </c>
       <c r="AR7" t="n">
-        <v>0.9998565468065703</v>
+        <v>0.7338967599833205</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0002518324591006797</v>
+        <v>0.1972670261076105</v>
       </c>
       <c r="AT7" t="n">
-        <v>31.25609799407043</v>
+        <v>3.616928327498513</v>
       </c>
       <c r="AU7" t="n">
-        <v>-43.90424701326711</v>
+        <v>1</v>
       </c>
       <c r="AV7" t="n">
         <v>1</v>
@@ -1966,16 +1966,16 @@
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BH7" t="n">
-        <v>1.39354701821346e-09</v>
+        <v>0.7902592927374807</v>
       </c>
     </row>
     <row r="8">
@@ -1996,17 +1996,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>U3</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>-21.5</v>
+        <v>-38.1</v>
       </c>
       <c r="H8" t="n">
         <v>42</v>
@@ -2015,82 +2015,82 @@
         <v>9.9</v>
       </c>
       <c r="J8" t="n">
-        <v>999981.0039</v>
+        <v>700</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1668</v>
+        <v>5.5374</v>
       </c>
       <c r="L8" t="n">
-        <v>108.54</v>
+        <v>2.8329</v>
       </c>
       <c r="M8" t="n">
-        <v>0.99603</v>
+        <v>0.70185</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1437</v>
+        <v>54.9014</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1056</v>
+        <v>0.045009</v>
       </c>
       <c r="P8" t="n">
-        <v>0.12092</v>
+        <v>2.4079</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2204e-14</v>
+        <v>0.9987200000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>1.1718</v>
+        <v>40</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03</v>
+        <v>0.045036</v>
       </c>
       <c r="T8" t="n">
-        <v>3.2993</v>
+        <v>0.0068878</v>
       </c>
       <c r="U8" t="n">
-        <v>0.45111</v>
+        <v>0.43168</v>
       </c>
       <c r="V8" t="n">
-        <v>44.89</v>
+        <v>1995.098</v>
       </c>
       <c r="W8" t="n">
-        <v>0.02</v>
+        <v>0.018084</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3515</v>
+        <v>0.0056711</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.62908</v>
+        <v>0.30587</v>
       </c>
       <c r="Z8" t="n">
         <v>0.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>273000</v>
+        <v>434000</v>
       </c>
       <c r="AE8" t="n">
-        <v>207.61</v>
+        <v>341.735</v>
       </c>
       <c r="AF8" t="n">
         <v>0.22</v>
       </c>
       <c r="AG8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.97698</v>
+        <v>1.2842</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -2103,22 +2103,22 @@
         </is>
       </c>
       <c r="AR8" t="n">
-        <v>-12.80051820488971</v>
+        <v>35.75981871605691</v>
       </c>
       <c r="AS8" t="n">
-        <v>13.80037333406916</v>
+        <v>-52.55576025282894</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.840931543560178e-05</v>
+        <v>-0.2710479656272216</v>
       </c>
       <c r="AU8" t="n">
-        <v>-22.69586161888179</v>
+        <v>1.078950164204641</v>
       </c>
       <c r="AV8" t="n">
-        <v>74.59589210767091</v>
+        <v>-4.749875425753947</v>
       </c>
       <c r="AW8" t="n">
-        <v>-1.657884619841042</v>
+        <v>9.866387518845828</v>
       </c>
       <c r="AX8" t="n">
         <v>1</v>
@@ -2141,16 +2141,16 @@
       </c>
       <c r="BE8" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="BF8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="BH8" t="n">
-        <v>1.393546883371421e-09</v>
+        <v>0.06273205538254371</v>
       </c>
     </row>
     <row r="9">
@@ -2171,101 +2171,101 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>U3</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>-21</v>
+        <v>-42</v>
       </c>
       <c r="H9" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I9" t="n">
         <v>9.9</v>
       </c>
       <c r="J9" t="n">
-        <v>999981.0039</v>
+        <v>699.9962</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2937</v>
+        <v>12.8728</v>
       </c>
       <c r="L9" t="n">
-        <v>106.0205</v>
+        <v>3.6981</v>
       </c>
       <c r="M9" t="n">
-        <v>0.99603</v>
+        <v>0.7733</v>
       </c>
       <c r="N9" t="n">
-        <v>1.137</v>
+        <v>31.5231</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1062</v>
+        <v>0.10543</v>
       </c>
       <c r="P9" t="n">
-        <v>0.12092</v>
+        <v>3.3206</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2204e-14</v>
+        <v>0.999</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3202</v>
+        <v>40</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03</v>
+        <v>0.045036</v>
       </c>
       <c r="T9" t="n">
-        <v>3.4464</v>
+        <v>0.0068878</v>
       </c>
       <c r="U9" t="n">
-        <v>0.47193</v>
+        <v>0.43168</v>
       </c>
       <c r="V9" t="n">
-        <v>44.89</v>
+        <v>1995.098</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02</v>
+        <v>0.018084</v>
       </c>
       <c r="X9" t="n">
-        <v>0.3515</v>
+        <v>0.0056711</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.62908</v>
+        <v>0.30587</v>
       </c>
       <c r="Z9" t="n">
         <v>0.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>273000</v>
+        <v>502000</v>
       </c>
       <c r="AE9" t="n">
-        <v>207.61</v>
+        <v>367.99</v>
       </c>
       <c r="AF9" t="n">
         <v>0.22</v>
       </c>
       <c r="AG9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>1</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.97698</v>
+        <v>1.4781</v>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="AR9" t="n">
-        <v>-5.530128821381387</v>
+        <v>4.4573516854008</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.188621230408841</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.084210374732349</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>1</v>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>Dr</t>
+          <t>tan_phi</t>
         </is>
       </c>
       <c r="BC9" t="inlineStr">
@@ -2321,11 +2321,11 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BH9" t="n">
-        <v>0.8230889024723439</v>
+        <v>2.723503620974602</v>
       </c>
     </row>
     <row r="10">
@@ -2346,17 +2346,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>U3</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>-21</v>
+        <v>-41.5</v>
       </c>
       <c r="H10" t="n">
         <v>42</v>
@@ -2365,82 +2365,82 @@
         <v>9.9</v>
       </c>
       <c r="J10" t="n">
-        <v>999981.0039</v>
+        <v>699.9962</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1397</v>
+        <v>12.8442</v>
       </c>
       <c r="L10" t="n">
-        <v>106.0205</v>
+        <v>3.761</v>
       </c>
       <c r="M10" t="n">
-        <v>0.99603</v>
+        <v>0.7733</v>
       </c>
       <c r="N10" t="n">
-        <v>1.1451</v>
+        <v>31.4958</v>
       </c>
       <c r="O10" t="n">
-        <v>0.10547</v>
+        <v>0.10589</v>
       </c>
       <c r="P10" t="n">
-        <v>0.12092</v>
+        <v>3.3206</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2204e-14</v>
+        <v>0.999</v>
       </c>
       <c r="R10" t="n">
-        <v>1.1718</v>
+        <v>40</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03</v>
+        <v>0.045036</v>
       </c>
       <c r="T10" t="n">
-        <v>3.2993</v>
+        <v>0.0068878</v>
       </c>
       <c r="U10" t="n">
-        <v>0.45111</v>
+        <v>0.43168</v>
       </c>
       <c r="V10" t="n">
-        <v>44.89</v>
+        <v>1995.098</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02</v>
+        <v>0.018084</v>
       </c>
       <c r="X10" t="n">
-        <v>0.3515</v>
+        <v>0.0056711</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.62908</v>
+        <v>0.30587</v>
       </c>
       <c r="Z10" t="n">
         <v>0.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>273000</v>
+        <v>502000</v>
       </c>
       <c r="AE10" t="n">
-        <v>207.61</v>
+        <v>367.99</v>
       </c>
       <c r="AF10" t="n">
         <v>0.22</v>
       </c>
       <c r="AG10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.97698</v>
+        <v>1.4781</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -2453,10 +2453,10 @@
         </is>
       </c>
       <c r="AR10" t="n">
-        <v>4.059373750006674</v>
+        <v>-90.06936959825512</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>166.4826711756099</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -2491,16 +2491,16 @@
       </c>
       <c r="BE10" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="BH10" t="n">
-        <v>5.456101001093093</v>
+        <v>0.2556197613510633</v>
       </c>
     </row>
     <row r="11">
@@ -2521,101 +2521,101 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>U3</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>-20.5</v>
+        <v>-41</v>
       </c>
       <c r="H11" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I11" t="n">
         <v>9.9</v>
       </c>
       <c r="J11" t="n">
-        <v>999981.0039</v>
+        <v>699.9962</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2629</v>
+        <v>12.8156</v>
       </c>
       <c r="L11" t="n">
-        <v>103.5009</v>
+        <v>3.8238</v>
       </c>
       <c r="M11" t="n">
-        <v>0.99603</v>
+        <v>0.7733</v>
       </c>
       <c r="N11" t="n">
-        <v>1.1386</v>
+        <v>31.36</v>
       </c>
       <c r="O11" t="n">
-        <v>0.10606</v>
+        <v>0.10634</v>
       </c>
       <c r="P11" t="n">
-        <v>0.12092</v>
+        <v>3.3206</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2204e-14</v>
+        <v>0.999</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3202</v>
+        <v>40</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03</v>
+        <v>0.045036</v>
       </c>
       <c r="T11" t="n">
-        <v>3.4464</v>
+        <v>0.0068878</v>
       </c>
       <c r="U11" t="n">
-        <v>0.47193</v>
+        <v>0.43168</v>
       </c>
       <c r="V11" t="n">
-        <v>44.89</v>
+        <v>1995.098</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02</v>
+        <v>0.018084</v>
       </c>
       <c r="X11" t="n">
-        <v>0.3515</v>
+        <v>0.0056711</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.62908</v>
+        <v>0.30587</v>
       </c>
       <c r="Z11" t="n">
         <v>0.2</v>
       </c>
       <c r="AA11" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>273000</v>
+        <v>502000</v>
       </c>
       <c r="AE11" t="n">
-        <v>207.61</v>
+        <v>367.99</v>
       </c>
       <c r="AF11" t="n">
         <v>0.22</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
         <v>1</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.97698</v>
+        <v>1.4781</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -2628,10 +2628,10 @@
         </is>
       </c>
       <c r="AR11" t="n">
-        <v>-75.77346155092035</v>
+        <v>-4.880510354374826</v>
       </c>
       <c r="AS11" t="n">
-        <v>141.0898736831906</v>
+        <v>12.08767024190333</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -2666,16 +2666,16 @@
       </c>
       <c r="BE11" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="BH11" t="n">
-        <v>0.2185348597033157</v>
+        <v>0.886560074781514</v>
       </c>
     </row>
     <row r="12">
@@ -2706,10 +2706,10 @@
         <v>13</v>
       </c>
       <c r="G12" t="n">
-        <v>-20.5</v>
+        <v>-22.5</v>
       </c>
       <c r="H12" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I12" t="n">
         <v>9.9</v>
@@ -2718,19 +2718,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1125</v>
+        <v>2.3861</v>
       </c>
       <c r="L12" t="n">
-        <v>103.5009</v>
+        <v>113.5791</v>
       </c>
       <c r="M12" t="n">
         <v>0.99603</v>
       </c>
       <c r="N12" t="n">
-        <v>1.1465</v>
+        <v>1.1323</v>
       </c>
       <c r="O12" t="n">
-        <v>0.10534</v>
+        <v>0.10665</v>
       </c>
       <c r="P12" t="n">
         <v>0.12092</v>
@@ -2739,16 +2739,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R12" t="n">
-        <v>1.1718</v>
+        <v>1.3202</v>
       </c>
       <c r="S12" t="n">
         <v>0.03</v>
       </c>
       <c r="T12" t="n">
-        <v>3.2993</v>
+        <v>3.4464</v>
       </c>
       <c r="U12" t="n">
-        <v>0.45111</v>
+        <v>0.47193</v>
       </c>
       <c r="V12" t="n">
         <v>44.89</v>
@@ -2803,16 +2803,16 @@
         </is>
       </c>
       <c r="AR12" t="n">
-        <v>-24.82345048439164</v>
+        <v>109.3986263993442</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.812510538574232</v>
+        <v>-190.6770910320547</v>
       </c>
       <c r="AT12" t="n">
-        <v>4.890072552816033</v>
+        <v>-231.3277843654793</v>
       </c>
       <c r="AU12" t="n">
-        <v>1</v>
+        <v>413.4344362464644</v>
       </c>
       <c r="AV12" t="n">
         <v>1</v>
@@ -2841,16 +2841,16 @@
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BH12" t="n">
-        <v>0.2185348597039403</v>
+        <v>0.0814159662904233</v>
       </c>
     </row>
     <row r="13">
@@ -2881,10 +2881,10 @@
         <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>-20</v>
+        <v>-22.5</v>
       </c>
       <c r="H13" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I13" t="n">
         <v>9.9</v>
@@ -2893,19 +2893,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2321</v>
+        <v>2.2211</v>
       </c>
       <c r="L13" t="n">
-        <v>100.9814</v>
+        <v>113.5791</v>
       </c>
       <c r="M13" t="n">
         <v>0.99603</v>
       </c>
       <c r="N13" t="n">
-        <v>1.1401</v>
+        <v>1.1409</v>
       </c>
       <c r="O13" t="n">
-        <v>0.10591</v>
+        <v>0.10586</v>
       </c>
       <c r="P13" t="n">
         <v>0.12092</v>
@@ -2914,16 +2914,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3202</v>
+        <v>1.1718</v>
       </c>
       <c r="S13" t="n">
         <v>0.03</v>
       </c>
       <c r="T13" t="n">
-        <v>3.4464</v>
+        <v>3.2993</v>
       </c>
       <c r="U13" t="n">
-        <v>0.47193</v>
+        <v>0.45111</v>
       </c>
       <c r="V13" t="n">
         <v>44.89</v>
@@ -2978,13 +2978,13 @@
         </is>
       </c>
       <c r="AR13" t="n">
-        <v>-3.693114939642687</v>
+        <v>0.7338967599833205</v>
       </c>
       <c r="AS13" t="n">
-        <v>10.30680561528942</v>
+        <v>0.1972670261076105</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>3.616928327498513</v>
       </c>
       <c r="AU13" t="n">
         <v>1</v>
@@ -3021,11 +3021,11 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BH13" t="n">
-        <v>0.8547445675427759</v>
+        <v>0.7902592927374807</v>
       </c>
     </row>
     <row r="14">
@@ -3056,10 +3056,10 @@
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>-20</v>
+        <v>-22</v>
       </c>
       <c r="H14" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I14" t="n">
         <v>9.9</v>
@@ -3068,19 +3068,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K14" t="n">
-        <v>2.0854</v>
+        <v>2.3553</v>
       </c>
       <c r="L14" t="n">
-        <v>100.9814</v>
+        <v>111.0596</v>
       </c>
       <c r="M14" t="n">
         <v>0.99603</v>
       </c>
       <c r="N14" t="n">
-        <v>1.1479</v>
+        <v>1.1338</v>
       </c>
       <c r="O14" t="n">
-        <v>0.10521</v>
+        <v>0.1065</v>
       </c>
       <c r="P14" t="n">
         <v>0.12092</v>
@@ -3089,16 +3089,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R14" t="n">
-        <v>1.1718</v>
+        <v>1.3202</v>
       </c>
       <c r="S14" t="n">
         <v>0.03</v>
       </c>
       <c r="T14" t="n">
-        <v>3.2993</v>
+        <v>3.4464</v>
       </c>
       <c r="U14" t="n">
-        <v>0.45111</v>
+        <v>0.47193</v>
       </c>
       <c r="V14" t="n">
         <v>44.89</v>
@@ -3146,61 +3146,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR14" t="n">
-        <v>1.000450697603294</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>-0.0007719335399446709</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>-71.65588664313576</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>133.3825982738635</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB14" t="inlineStr">
-        <is>
-          <t>tan_phi</t>
-        </is>
-      </c>
-      <c r="BC14" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH14" t="n">
-        <v>1.393546885360445e-09</v>
       </c>
     </row>
     <row r="15">
@@ -3228,13 +3173,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>-25.5</v>
+        <v>-22</v>
       </c>
       <c r="H15" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I15" t="n">
         <v>9.9</v>
@@ -3243,19 +3188,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K15" t="n">
-        <v>2.5709</v>
+        <v>2.1939</v>
       </c>
       <c r="L15" t="n">
-        <v>128.6963</v>
+        <v>111.0596</v>
       </c>
       <c r="M15" t="n">
         <v>0.99603</v>
       </c>
       <c r="N15" t="n">
-        <v>1.1229</v>
+        <v>1.1423</v>
       </c>
       <c r="O15" t="n">
-        <v>0.10753</v>
+        <v>0.10573</v>
       </c>
       <c r="P15" t="n">
         <v>0.12092</v>
@@ -3264,16 +3209,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3202</v>
+        <v>1.1718</v>
       </c>
       <c r="S15" t="n">
         <v>0.03</v>
       </c>
       <c r="T15" t="n">
-        <v>3.4464</v>
+        <v>3.2993</v>
       </c>
       <c r="U15" t="n">
-        <v>0.47193</v>
+        <v>0.45111</v>
       </c>
       <c r="V15" t="n">
         <v>44.89</v>
@@ -3300,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>298500</v>
+        <v>273000</v>
       </c>
       <c r="AE15" t="n">
-        <v>234.31</v>
+        <v>207.61</v>
       </c>
       <c r="AF15" t="n">
         <v>0.22</v>
@@ -3321,61 +3266,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR15" t="n">
-        <v>0.9993421178394841</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0.001289449976682366</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>-1.152497428205068</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>-25.11547160619605</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>2.122112245708987</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>4.614646014786715</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB15" t="inlineStr">
-        <is>
-          <t>tan_phi</t>
-        </is>
-      </c>
-      <c r="BC15" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH15" t="n">
-        <v>1.393546899253889e-09</v>
       </c>
     </row>
     <row r="16">
@@ -3403,13 +3293,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>-25.5</v>
+        <v>-21.5</v>
       </c>
       <c r="H16" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I16" t="n">
         <v>9.9</v>
@@ -3418,19 +3308,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3839</v>
+        <v>2.3245</v>
       </c>
       <c r="L16" t="n">
-        <v>128.6963</v>
+        <v>108.54</v>
       </c>
       <c r="M16" t="n">
         <v>0.99603</v>
       </c>
       <c r="N16" t="n">
-        <v>1.1326</v>
+        <v>1.1354</v>
       </c>
       <c r="O16" t="n">
-        <v>0.10664</v>
+        <v>0.10635</v>
       </c>
       <c r="P16" t="n">
         <v>0.12092</v>
@@ -3439,16 +3329,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R16" t="n">
-        <v>1.1718</v>
+        <v>1.3202</v>
       </c>
       <c r="S16" t="n">
         <v>0.03</v>
       </c>
       <c r="T16" t="n">
-        <v>3.2993</v>
+        <v>3.4464</v>
       </c>
       <c r="U16" t="n">
-        <v>0.45111</v>
+        <v>0.47193</v>
       </c>
       <c r="V16" t="n">
         <v>44.89</v>
@@ -3475,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>298500</v>
+        <v>273000</v>
       </c>
       <c r="AE16" t="n">
-        <v>234.31</v>
+        <v>207.61</v>
       </c>
       <c r="AF16" t="n">
         <v>0.22</v>
@@ -3496,61 +3386,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR16" t="n">
-        <v>-5.530128821381387</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>4.188621230408841</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>1.084210374732349</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB16" t="inlineStr">
-        <is>
-          <t>tan_phi</t>
-        </is>
-      </c>
-      <c r="BC16" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BH16" t="n">
-        <v>0.8230889024723439</v>
       </c>
     </row>
     <row r="17">
@@ -3578,13 +3413,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>-25</v>
+        <v>-21.5</v>
       </c>
       <c r="H17" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I17" t="n">
         <v>9.9</v>
@@ -3593,19 +3428,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K17" t="n">
-        <v>2.5401</v>
+        <v>2.1668</v>
       </c>
       <c r="L17" t="n">
-        <v>126.1768</v>
+        <v>108.54</v>
       </c>
       <c r="M17" t="n">
         <v>0.99603</v>
       </c>
       <c r="N17" t="n">
-        <v>1.1245</v>
+        <v>1.1437</v>
       </c>
       <c r="O17" t="n">
-        <v>0.10739</v>
+        <v>0.1056</v>
       </c>
       <c r="P17" t="n">
         <v>0.12092</v>
@@ -3614,16 +3449,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R17" t="n">
-        <v>1.3202</v>
+        <v>1.1718</v>
       </c>
       <c r="S17" t="n">
         <v>0.03</v>
       </c>
       <c r="T17" t="n">
-        <v>3.4464</v>
+        <v>3.2993</v>
       </c>
       <c r="U17" t="n">
-        <v>0.47193</v>
+        <v>0.45111</v>
       </c>
       <c r="V17" t="n">
         <v>44.89</v>
@@ -3650,10 +3485,10 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>298500</v>
+        <v>273000</v>
       </c>
       <c r="AE17" t="n">
-        <v>234.31</v>
+        <v>207.61</v>
       </c>
       <c r="AF17" t="n">
         <v>0.22</v>
@@ -3671,61 +3506,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR17" t="n">
-        <v>4.059373750006674</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB17" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC17" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH17" t="n">
-        <v>5.456101001093093</v>
       </c>
     </row>
     <row r="18">
@@ -3753,13 +3533,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" t="n">
-        <v>-25</v>
+        <v>-21</v>
       </c>
       <c r="H18" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I18" t="n">
         <v>9.9</v>
@@ -3768,19 +3548,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3567</v>
+        <v>2.2937</v>
       </c>
       <c r="L18" t="n">
-        <v>126.1768</v>
+        <v>106.0205</v>
       </c>
       <c r="M18" t="n">
         <v>0.99603</v>
       </c>
       <c r="N18" t="n">
-        <v>1.1339</v>
+        <v>1.137</v>
       </c>
       <c r="O18" t="n">
-        <v>0.10651</v>
+        <v>0.1062</v>
       </c>
       <c r="P18" t="n">
         <v>0.12092</v>
@@ -3789,16 +3569,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R18" t="n">
-        <v>1.1718</v>
+        <v>1.3202</v>
       </c>
       <c r="S18" t="n">
         <v>0.03</v>
       </c>
       <c r="T18" t="n">
-        <v>3.2993</v>
+        <v>3.4464</v>
       </c>
       <c r="U18" t="n">
-        <v>0.45111</v>
+        <v>0.47193</v>
       </c>
       <c r="V18" t="n">
         <v>44.89</v>
@@ -3825,10 +3605,10 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>298500</v>
+        <v>273000</v>
       </c>
       <c r="AE18" t="n">
-        <v>234.31</v>
+        <v>207.61</v>
       </c>
       <c r="AF18" t="n">
         <v>0.22</v>
@@ -3846,61 +3626,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR18" t="n">
-        <v>-223.6916059714391</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>1035.231725267677</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB18" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC18" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH18" t="n">
-        <v>5.456101001093144</v>
       </c>
     </row>
     <row r="19">
@@ -3928,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" t="n">
-        <v>-24.5</v>
+        <v>-21</v>
       </c>
       <c r="H19" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I19" t="n">
         <v>9.9</v>
@@ -3943,19 +3668,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5093</v>
+        <v>2.1397</v>
       </c>
       <c r="L19" t="n">
-        <v>123.6572</v>
+        <v>106.0205</v>
       </c>
       <c r="M19" t="n">
         <v>0.99603</v>
       </c>
       <c r="N19" t="n">
-        <v>1.126</v>
+        <v>1.1451</v>
       </c>
       <c r="O19" t="n">
-        <v>0.10724</v>
+        <v>0.10547</v>
       </c>
       <c r="P19" t="n">
         <v>0.12092</v>
@@ -3964,16 +3689,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R19" t="n">
-        <v>1.3202</v>
+        <v>1.1718</v>
       </c>
       <c r="S19" t="n">
         <v>0.03</v>
       </c>
       <c r="T19" t="n">
-        <v>3.4464</v>
+        <v>3.2993</v>
       </c>
       <c r="U19" t="n">
-        <v>0.47193</v>
+        <v>0.45111</v>
       </c>
       <c r="V19" t="n">
         <v>44.89</v>
@@ -4000,10 +3725,10 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>298500</v>
+        <v>273000</v>
       </c>
       <c r="AE19" t="n">
-        <v>234.31</v>
+        <v>207.61</v>
       </c>
       <c r="AF19" t="n">
         <v>0.22</v>
@@ -4021,61 +3746,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR19" t="n">
-        <v>2.346595434158399</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0.7589881186911798</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.699475782500991</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB19" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC19" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH19" t="n">
-        <v>5.456101001102643</v>
       </c>
     </row>
     <row r="20">
@@ -4103,13 +3773,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" t="n">
-        <v>-24.5</v>
+        <v>-20.5</v>
       </c>
       <c r="H20" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I20" t="n">
         <v>9.9</v>
@@ -4118,19 +3788,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K20" t="n">
-        <v>2.3296</v>
+        <v>2.2629</v>
       </c>
       <c r="L20" t="n">
-        <v>123.6572</v>
+        <v>103.5009</v>
       </c>
       <c r="M20" t="n">
         <v>0.99603</v>
       </c>
       <c r="N20" t="n">
-        <v>1.1353</v>
+        <v>1.1386</v>
       </c>
       <c r="O20" t="n">
-        <v>0.10638</v>
+        <v>0.10606</v>
       </c>
       <c r="P20" t="n">
         <v>0.12092</v>
@@ -4139,16 +3809,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R20" t="n">
-        <v>1.1718</v>
+        <v>1.3202</v>
       </c>
       <c r="S20" t="n">
         <v>0.03</v>
       </c>
       <c r="T20" t="n">
-        <v>3.2993</v>
+        <v>3.4464</v>
       </c>
       <c r="U20" t="n">
-        <v>0.45111</v>
+        <v>0.47193</v>
       </c>
       <c r="V20" t="n">
         <v>44.89</v>
@@ -4175,10 +3845,10 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>298500</v>
+        <v>273000</v>
       </c>
       <c r="AE20" t="n">
-        <v>234.31</v>
+        <v>207.61</v>
       </c>
       <c r="AF20" t="n">
         <v>0.22</v>
@@ -4196,61 +3866,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR20" t="n">
-        <v>-3.693114939642687</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>10.30680561528942</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB20" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC20" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH20" t="n">
-        <v>0.8547445675427759</v>
       </c>
     </row>
     <row r="21">
@@ -4278,13 +3893,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
-        <v>-24</v>
+        <v>-20.5</v>
       </c>
       <c r="H21" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I21" t="n">
         <v>9.9</v>
@@ -4293,19 +3908,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K21" t="n">
-        <v>2.4785</v>
+        <v>2.1125</v>
       </c>
       <c r="L21" t="n">
-        <v>121.1377</v>
+        <v>103.5009</v>
       </c>
       <c r="M21" t="n">
         <v>0.99603</v>
       </c>
       <c r="N21" t="n">
-        <v>1.1276</v>
+        <v>1.1465</v>
       </c>
       <c r="O21" t="n">
-        <v>0.10709</v>
+        <v>0.10534</v>
       </c>
       <c r="P21" t="n">
         <v>0.12092</v>
@@ -4314,16 +3929,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R21" t="n">
-        <v>1.3202</v>
+        <v>1.1718</v>
       </c>
       <c r="S21" t="n">
         <v>0.03</v>
       </c>
       <c r="T21" t="n">
-        <v>3.4464</v>
+        <v>3.2993</v>
       </c>
       <c r="U21" t="n">
-        <v>0.47193</v>
+        <v>0.45111</v>
       </c>
       <c r="V21" t="n">
         <v>44.89</v>
@@ -4350,10 +3965,10 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>298500</v>
+        <v>273000</v>
       </c>
       <c r="AE21" t="n">
-        <v>234.31</v>
+        <v>207.61</v>
       </c>
       <c r="AF21" t="n">
         <v>0.22</v>
@@ -4371,61 +3986,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR21" t="n">
-        <v>51.56726037342422</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>-251.1835264858928</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>-93.96581778967565</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>473.9664745220851</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB21" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC21" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH21" t="n">
-        <v>0.8547445675429087</v>
       </c>
     </row>
     <row r="22">
@@ -4453,13 +4013,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" t="n">
-        <v>-24</v>
+        <v>-20</v>
       </c>
       <c r="H22" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I22" t="n">
         <v>9.9</v>
@@ -4468,19 +4028,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K22" t="n">
-        <v>2.3025</v>
+        <v>2.2321</v>
       </c>
       <c r="L22" t="n">
-        <v>121.1377</v>
+        <v>100.9814</v>
       </c>
       <c r="M22" t="n">
         <v>0.99603</v>
       </c>
       <c r="N22" t="n">
-        <v>1.1367</v>
+        <v>1.1401</v>
       </c>
       <c r="O22" t="n">
-        <v>0.10625</v>
+        <v>0.10591</v>
       </c>
       <c r="P22" t="n">
         <v>0.12092</v>
@@ -4489,16 +4049,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R22" t="n">
-        <v>1.1718</v>
+        <v>1.3202</v>
       </c>
       <c r="S22" t="n">
         <v>0.03</v>
       </c>
       <c r="T22" t="n">
-        <v>3.2993</v>
+        <v>3.4464</v>
       </c>
       <c r="U22" t="n">
-        <v>0.45111</v>
+        <v>0.47193</v>
       </c>
       <c r="V22" t="n">
         <v>44.89</v>
@@ -4525,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>298500</v>
+        <v>273000</v>
       </c>
       <c r="AE22" t="n">
-        <v>234.31</v>
+        <v>207.61</v>
       </c>
       <c r="AF22" t="n">
         <v>0.22</v>
@@ -4546,61 +4106,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR22" t="n">
-        <v>-3.645631089196218</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>-0.6681868354060364</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>-12.01994392792906</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>2.969211919153504</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>2.396389742520936</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>5.086580984600076</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB22" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC22" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH22" t="n">
-        <v>0.8547445677829295</v>
       </c>
     </row>
     <row r="23">
@@ -4628,13 +4133,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" t="n">
-        <v>-23.5</v>
+        <v>-20</v>
       </c>
       <c r="H23" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I23" t="n">
         <v>9.9</v>
@@ -4643,19 +4148,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K23" t="n">
-        <v>2.4477</v>
+        <v>2.0854</v>
       </c>
       <c r="L23" t="n">
-        <v>118.6182</v>
+        <v>100.9814</v>
       </c>
       <c r="M23" t="n">
         <v>0.99603</v>
       </c>
       <c r="N23" t="n">
-        <v>1.1291</v>
+        <v>1.1479</v>
       </c>
       <c r="O23" t="n">
-        <v>0.10694</v>
+        <v>0.10521</v>
       </c>
       <c r="P23" t="n">
         <v>0.12092</v>
@@ -4664,16 +4169,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R23" t="n">
-        <v>1.3202</v>
+        <v>1.1718</v>
       </c>
       <c r="S23" t="n">
         <v>0.03</v>
       </c>
       <c r="T23" t="n">
-        <v>3.4464</v>
+        <v>3.2993</v>
       </c>
       <c r="U23" t="n">
-        <v>0.47193</v>
+        <v>0.45111</v>
       </c>
       <c r="V23" t="n">
         <v>44.89</v>
@@ -4700,10 +4205,10 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>298500</v>
+        <v>273000</v>
       </c>
       <c r="AE23" t="n">
-        <v>234.31</v>
+        <v>207.61</v>
       </c>
       <c r="AF23" t="n">
         <v>0.22</v>
@@ -4721,61 +4226,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR23" t="n">
-        <v>-5.530128821381387</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>4.188621230408841</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>1.084210374732349</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB23" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC23" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BH23" t="n">
-        <v>0.8230889024723439</v>
       </c>
     </row>
     <row r="24">
@@ -4806,10 +4256,10 @@
         <v>14</v>
       </c>
       <c r="G24" t="n">
-        <v>-23.5</v>
+        <v>-25.5</v>
       </c>
       <c r="H24" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I24" t="n">
         <v>9.9</v>
@@ -4818,19 +4268,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K24" t="n">
-        <v>2.2753</v>
+        <v>2.5709</v>
       </c>
       <c r="L24" t="n">
-        <v>118.6182</v>
+        <v>128.6963</v>
       </c>
       <c r="M24" t="n">
         <v>0.99603</v>
       </c>
       <c r="N24" t="n">
-        <v>1.1381</v>
+        <v>1.1229</v>
       </c>
       <c r="O24" t="n">
-        <v>0.10612</v>
+        <v>0.10753</v>
       </c>
       <c r="P24" t="n">
         <v>0.12092</v>
@@ -4839,16 +4289,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R24" t="n">
-        <v>1.1718</v>
+        <v>1.3202</v>
       </c>
       <c r="S24" t="n">
         <v>0.03</v>
       </c>
       <c r="T24" t="n">
-        <v>3.2993</v>
+        <v>3.4464</v>
       </c>
       <c r="U24" t="n">
-        <v>0.45111</v>
+        <v>0.47193</v>
       </c>
       <c r="V24" t="n">
         <v>44.89</v>
@@ -4896,61 +4346,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR24" t="n">
-        <v>-2.375308045802837</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>-14.34234883311924</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.380662327405613</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8.219814988829908</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0.9845628507162767</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>0.452687188014449</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB24" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC24" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BH24" t="n">
-        <v>0.823088902255773</v>
       </c>
     </row>
     <row r="25">
@@ -4981,10 +4376,10 @@
         <v>14</v>
       </c>
       <c r="G25" t="n">
-        <v>-23</v>
+        <v>-25.5</v>
       </c>
       <c r="H25" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I25" t="n">
         <v>9.9</v>
@@ -4993,19 +4388,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K25" t="n">
-        <v>2.4169</v>
+        <v>2.3839</v>
       </c>
       <c r="L25" t="n">
-        <v>116.0986</v>
+        <v>128.6963</v>
       </c>
       <c r="M25" t="n">
         <v>0.99603</v>
       </c>
       <c r="N25" t="n">
-        <v>1.1307</v>
+        <v>1.1326</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1068</v>
+        <v>0.10664</v>
       </c>
       <c r="P25" t="n">
         <v>0.12092</v>
@@ -5014,16 +4409,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R25" t="n">
-        <v>1.3202</v>
+        <v>1.1718</v>
       </c>
       <c r="S25" t="n">
         <v>0.03</v>
       </c>
       <c r="T25" t="n">
-        <v>3.4464</v>
+        <v>3.2993</v>
       </c>
       <c r="U25" t="n">
-        <v>0.47193</v>
+        <v>0.45111</v>
       </c>
       <c r="V25" t="n">
         <v>44.89</v>
@@ -5071,61 +4466,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR25" t="n">
-        <v>-4.725473775029682</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>-1.230251239680072</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>-1.92075828044667</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>1.299995321450736</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>1.237214257700401</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>3.856205279787232</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0.9161861398023227</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0.5336286374240969</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>-2.316285963141175</v>
-      </c>
-      <c r="BB25" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC25" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BH25" t="n">
-        <v>0.8230889060780162</v>
       </c>
     </row>
     <row r="26">
@@ -5156,10 +4496,10 @@
         <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="H26" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I26" t="n">
         <v>9.9</v>
@@ -5168,19 +4508,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2482</v>
+        <v>2.5401</v>
       </c>
       <c r="L26" t="n">
-        <v>116.0986</v>
+        <v>126.1768</v>
       </c>
       <c r="M26" t="n">
         <v>0.99603</v>
       </c>
       <c r="N26" t="n">
-        <v>1.1395</v>
+        <v>1.1245</v>
       </c>
       <c r="O26" t="n">
-        <v>0.10599</v>
+        <v>0.10739</v>
       </c>
       <c r="P26" t="n">
         <v>0.12092</v>
@@ -5189,16 +4529,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R26" t="n">
-        <v>1.1718</v>
+        <v>1.3202</v>
       </c>
       <c r="S26" t="n">
         <v>0.03</v>
       </c>
       <c r="T26" t="n">
-        <v>3.2993</v>
+        <v>3.4464</v>
       </c>
       <c r="U26" t="n">
-        <v>0.45111</v>
+        <v>0.47193</v>
       </c>
       <c r="V26" t="n">
         <v>44.89</v>
@@ -5246,61 +4586,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR26" t="n">
-        <v>4.059373750006674</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB26" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC26" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH26" t="n">
-        <v>5.456101001093093</v>
       </c>
     </row>
     <row r="27">
@@ -5328,13 +4613,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>-28.5</v>
+        <v>-25</v>
       </c>
       <c r="H27" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I27" t="n">
         <v>9.9</v>
@@ -5343,19 +4628,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K27" t="n">
-        <v>2.7557</v>
+        <v>2.3567</v>
       </c>
       <c r="L27" t="n">
-        <v>143.8135</v>
+        <v>126.1768</v>
       </c>
       <c r="M27" t="n">
         <v>0.99603</v>
       </c>
       <c r="N27" t="n">
-        <v>1.1138</v>
+        <v>1.1339</v>
       </c>
       <c r="O27" t="n">
-        <v>0.10842</v>
+        <v>0.10651</v>
       </c>
       <c r="P27" t="n">
         <v>0.12092</v>
@@ -5364,16 +4649,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R27" t="n">
-        <v>1.3202</v>
+        <v>1.1718</v>
       </c>
       <c r="S27" t="n">
         <v>0.03</v>
       </c>
       <c r="T27" t="n">
-        <v>3.4464</v>
+        <v>3.2993</v>
       </c>
       <c r="U27" t="n">
-        <v>0.47193</v>
+        <v>0.45111</v>
       </c>
       <c r="V27" t="n">
         <v>44.89</v>
@@ -5400,10 +4685,10 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>324000</v>
+        <v>298500</v>
       </c>
       <c r="AE27" t="n">
-        <v>261.01</v>
+        <v>234.31</v>
       </c>
       <c r="AF27" t="n">
         <v>0.22</v>
@@ -5421,61 +4706,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR27" t="n">
-        <v>65.51332048113301</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>-64.56569016881933</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB27" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC27" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH27" t="n">
-        <v>0.2185348597033158</v>
       </c>
     </row>
     <row r="28">
@@ -5503,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>-28.5</v>
+        <v>-24.5</v>
       </c>
       <c r="H28" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I28" t="n">
         <v>9.9</v>
@@ -5518,19 +4748,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K28" t="n">
-        <v>2.5467</v>
+        <v>2.5093</v>
       </c>
       <c r="L28" t="n">
-        <v>143.8135</v>
+        <v>123.6572</v>
       </c>
       <c r="M28" t="n">
         <v>0.99603</v>
       </c>
       <c r="N28" t="n">
-        <v>1.1243</v>
+        <v>1.126</v>
       </c>
       <c r="O28" t="n">
-        <v>0.10742</v>
+        <v>0.10724</v>
       </c>
       <c r="P28" t="n">
         <v>0.12092</v>
@@ -5539,16 +4769,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R28" t="n">
-        <v>1.1718</v>
+        <v>1.3202</v>
       </c>
       <c r="S28" t="n">
         <v>0.03</v>
       </c>
       <c r="T28" t="n">
-        <v>3.2993</v>
+        <v>3.4464</v>
       </c>
       <c r="U28" t="n">
-        <v>0.45111</v>
+        <v>0.47193</v>
       </c>
       <c r="V28" t="n">
         <v>44.89</v>
@@ -5575,10 +4805,10 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>324000</v>
+        <v>298500</v>
       </c>
       <c r="AE28" t="n">
-        <v>261.01</v>
+        <v>234.31</v>
       </c>
       <c r="AF28" t="n">
         <v>0.22</v>
@@ -5596,61 +4826,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR28" t="n">
-        <v>-56.18714341195017</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>167.0627524133235</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>-1.071951281021534</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB28" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC28" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH28" t="n">
-        <v>0.2185348601163286</v>
       </c>
     </row>
     <row r="29">
@@ -5678,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" t="n">
-        <v>-28</v>
+        <v>-24.5</v>
       </c>
       <c r="H29" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I29" t="n">
         <v>9.9</v>
@@ -5693,19 +4868,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K29" t="n">
-        <v>2.7249</v>
+        <v>2.3296</v>
       </c>
       <c r="L29" t="n">
-        <v>141.294</v>
+        <v>123.6572</v>
       </c>
       <c r="M29" t="n">
         <v>0.99603</v>
       </c>
       <c r="N29" t="n">
-        <v>1.1153</v>
+        <v>1.1353</v>
       </c>
       <c r="O29" t="n">
-        <v>0.10827</v>
+        <v>0.10638</v>
       </c>
       <c r="P29" t="n">
         <v>0.12092</v>
@@ -5714,16 +4889,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R29" t="n">
-        <v>1.3202</v>
+        <v>1.1718</v>
       </c>
       <c r="S29" t="n">
         <v>0.03</v>
       </c>
       <c r="T29" t="n">
-        <v>3.4464</v>
+        <v>3.2993</v>
       </c>
       <c r="U29" t="n">
-        <v>0.47193</v>
+        <v>0.45111</v>
       </c>
       <c r="V29" t="n">
         <v>44.89</v>
@@ -5750,10 +4925,10 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>324000</v>
+        <v>298500</v>
       </c>
       <c r="AE29" t="n">
-        <v>261.01</v>
+        <v>234.31</v>
       </c>
       <c r="AF29" t="n">
         <v>0.22</v>
@@ -5771,61 +4946,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR29" t="n">
-        <v>-3.693114939642687</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>10.30680561528942</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB29" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC29" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH29" t="n">
-        <v>0.8547445675427759</v>
       </c>
     </row>
     <row r="30">
@@ -5853,13 +4973,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" t="n">
-        <v>-28</v>
+        <v>-24</v>
       </c>
       <c r="H30" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I30" t="n">
         <v>9.9</v>
@@ -5868,19 +4988,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K30" t="n">
-        <v>2.5195</v>
+        <v>2.4785</v>
       </c>
       <c r="L30" t="n">
-        <v>141.294</v>
+        <v>121.1377</v>
       </c>
       <c r="M30" t="n">
         <v>0.99603</v>
       </c>
       <c r="N30" t="n">
-        <v>1.1257</v>
+        <v>1.1276</v>
       </c>
       <c r="O30" t="n">
-        <v>0.10729</v>
+        <v>0.10709</v>
       </c>
       <c r="P30" t="n">
         <v>0.12092</v>
@@ -5889,16 +5009,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R30" t="n">
-        <v>1.1718</v>
+        <v>1.3202</v>
       </c>
       <c r="S30" t="n">
         <v>0.03</v>
       </c>
       <c r="T30" t="n">
-        <v>3.2993</v>
+        <v>3.4464</v>
       </c>
       <c r="U30" t="n">
-        <v>0.45111</v>
+        <v>0.47193</v>
       </c>
       <c r="V30" t="n">
         <v>44.89</v>
@@ -5925,10 +5045,10 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>324000</v>
+        <v>298500</v>
       </c>
       <c r="AE30" t="n">
-        <v>261.01</v>
+        <v>234.31</v>
       </c>
       <c r="AF30" t="n">
         <v>0.22</v>
@@ -5946,61 +5066,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR30" t="n">
-        <v>0.999676760109748</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>0.0003542065492957672</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>61.91286461145039</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>-61.0386801498226</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB30" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC30" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH30" t="n">
-        <v>1.393546902249836e-09</v>
       </c>
     </row>
     <row r="31">
@@ -6028,13 +5093,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" t="n">
-        <v>-27.5</v>
+        <v>-24</v>
       </c>
       <c r="H31" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I31" t="n">
         <v>9.9</v>
@@ -6043,19 +5108,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K31" t="n">
-        <v>2.6941</v>
+        <v>2.3025</v>
       </c>
       <c r="L31" t="n">
-        <v>138.7744</v>
+        <v>121.1377</v>
       </c>
       <c r="M31" t="n">
         <v>0.99603</v>
       </c>
       <c r="N31" t="n">
-        <v>1.1168</v>
+        <v>1.1367</v>
       </c>
       <c r="O31" t="n">
-        <v>0.10813</v>
+        <v>0.10625</v>
       </c>
       <c r="P31" t="n">
         <v>0.12092</v>
@@ -6064,16 +5129,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R31" t="n">
-        <v>1.3202</v>
+        <v>1.1718</v>
       </c>
       <c r="S31" t="n">
         <v>0.03</v>
       </c>
       <c r="T31" t="n">
-        <v>3.4464</v>
+        <v>3.2993</v>
       </c>
       <c r="U31" t="n">
-        <v>0.47193</v>
+        <v>0.45111</v>
       </c>
       <c r="V31" t="n">
         <v>44.89</v>
@@ -6100,10 +5165,10 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>324000</v>
+        <v>298500</v>
       </c>
       <c r="AE31" t="n">
-        <v>261.01</v>
+        <v>234.31</v>
       </c>
       <c r="AF31" t="n">
         <v>0.22</v>
@@ -6121,61 +5186,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR31" t="n">
-        <v>0.9998341205228081</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>2.527933645829882e-05</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>2.058694858386092</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>-53.31391213953992</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>157.9278268084598</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>-1.068678094342208</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB31" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC31" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH31" t="n">
-        <v>1.393550658738944e-09</v>
       </c>
     </row>
     <row r="32">
@@ -6203,13 +5213,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" t="n">
-        <v>-27.5</v>
+        <v>-23.5</v>
       </c>
       <c r="H32" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I32" t="n">
         <v>9.9</v>
@@ -6218,19 +5228,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K32" t="n">
-        <v>2.4924</v>
+        <v>2.4477</v>
       </c>
       <c r="L32" t="n">
-        <v>138.7744</v>
+        <v>118.6182</v>
       </c>
       <c r="M32" t="n">
         <v>0.99603</v>
       </c>
       <c r="N32" t="n">
-        <v>1.1271</v>
+        <v>1.1291</v>
       </c>
       <c r="O32" t="n">
-        <v>0.10716</v>
+        <v>0.10694</v>
       </c>
       <c r="P32" t="n">
         <v>0.12092</v>
@@ -6239,16 +5249,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R32" t="n">
-        <v>1.1718</v>
+        <v>1.3202</v>
       </c>
       <c r="S32" t="n">
         <v>0.03</v>
       </c>
       <c r="T32" t="n">
-        <v>3.2993</v>
+        <v>3.4464</v>
       </c>
       <c r="U32" t="n">
-        <v>0.45111</v>
+        <v>0.47193</v>
       </c>
       <c r="V32" t="n">
         <v>44.89</v>
@@ -6275,10 +5285,10 @@
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>324000</v>
+        <v>298500</v>
       </c>
       <c r="AE32" t="n">
-        <v>261.01</v>
+        <v>234.31</v>
       </c>
       <c r="AF32" t="n">
         <v>0.22</v>
@@ -6296,61 +5306,6 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR32" t="n">
-        <v>-5.530128821381387</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>4.188621230408841</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>1.084210374732349</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB32" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC32" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BH32" t="n">
-        <v>0.8230889024723439</v>
       </c>
     </row>
     <row r="33">
@@ -6378,13 +5333,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33" t="n">
-        <v>-27</v>
+        <v>-23.5</v>
       </c>
       <c r="H33" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I33" t="n">
         <v>9.9</v>
@@ -6393,19 +5348,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K33" t="n">
-        <v>2.6633</v>
+        <v>2.2753</v>
       </c>
       <c r="L33" t="n">
-        <v>136.2549</v>
+        <v>118.6182</v>
       </c>
       <c r="M33" t="n">
         <v>0.99603</v>
       </c>
       <c r="N33" t="n">
-        <v>1.1183</v>
+        <v>1.1381</v>
       </c>
       <c r="O33" t="n">
-        <v>0.10798</v>
+        <v>0.10612</v>
       </c>
       <c r="P33" t="n">
         <v>0.12092</v>
@@ -6414,16 +5369,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R33" t="n">
-        <v>1.3202</v>
+        <v>1.1718</v>
       </c>
       <c r="S33" t="n">
         <v>0.03</v>
       </c>
       <c r="T33" t="n">
-        <v>3.4464</v>
+        <v>3.2993</v>
       </c>
       <c r="U33" t="n">
-        <v>0.47193</v>
+        <v>0.45111</v>
       </c>
       <c r="V33" t="n">
         <v>44.89</v>
@@ -6450,10 +5405,10 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>324000</v>
+        <v>298500</v>
       </c>
       <c r="AE33" t="n">
-        <v>261.01</v>
+        <v>234.31</v>
       </c>
       <c r="AF33" t="n">
         <v>0.22</v>
@@ -6498,13 +5453,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34" t="n">
-        <v>-27</v>
+        <v>-23</v>
       </c>
       <c r="H34" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I34" t="n">
         <v>9.9</v>
@@ -6513,19 +5468,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K34" t="n">
-        <v>2.4653</v>
+        <v>2.4169</v>
       </c>
       <c r="L34" t="n">
-        <v>136.2549</v>
+        <v>116.0986</v>
       </c>
       <c r="M34" t="n">
         <v>0.99603</v>
       </c>
       <c r="N34" t="n">
-        <v>1.1284</v>
+        <v>1.1307</v>
       </c>
       <c r="O34" t="n">
-        <v>0.10703</v>
+        <v>0.1068</v>
       </c>
       <c r="P34" t="n">
         <v>0.12092</v>
@@ -6534,16 +5489,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R34" t="n">
-        <v>1.1718</v>
+        <v>1.3202</v>
       </c>
       <c r="S34" t="n">
         <v>0.03</v>
       </c>
       <c r="T34" t="n">
-        <v>3.2993</v>
+        <v>3.4464</v>
       </c>
       <c r="U34" t="n">
-        <v>0.45111</v>
+        <v>0.47193</v>
       </c>
       <c r="V34" t="n">
         <v>44.89</v>
@@ -6570,10 +5525,10 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>324000</v>
+        <v>298500</v>
       </c>
       <c r="AE34" t="n">
-        <v>261.01</v>
+        <v>234.31</v>
       </c>
       <c r="AF34" t="n">
         <v>0.22</v>
@@ -6618,13 +5573,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" t="n">
-        <v>-26.5</v>
+        <v>-23</v>
       </c>
       <c r="H35" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I35" t="n">
         <v>9.9</v>
@@ -6633,19 +5588,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K35" t="n">
-        <v>2.6325</v>
+        <v>2.2482</v>
       </c>
       <c r="L35" t="n">
-        <v>133.7354</v>
+        <v>116.0986</v>
       </c>
       <c r="M35" t="n">
         <v>0.99603</v>
       </c>
       <c r="N35" t="n">
-        <v>1.1199</v>
+        <v>1.1395</v>
       </c>
       <c r="O35" t="n">
-        <v>0.10783</v>
+        <v>0.10599</v>
       </c>
       <c r="P35" t="n">
         <v>0.12092</v>
@@ -6654,16 +5609,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R35" t="n">
-        <v>1.3202</v>
+        <v>1.1718</v>
       </c>
       <c r="S35" t="n">
         <v>0.03</v>
       </c>
       <c r="T35" t="n">
-        <v>3.4464</v>
+        <v>3.2993</v>
       </c>
       <c r="U35" t="n">
-        <v>0.47193</v>
+        <v>0.45111</v>
       </c>
       <c r="V35" t="n">
         <v>44.89</v>
@@ -6690,10 +5645,10 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>324000</v>
+        <v>298500</v>
       </c>
       <c r="AE35" t="n">
-        <v>261.01</v>
+        <v>234.31</v>
       </c>
       <c r="AF35" t="n">
         <v>0.22</v>
@@ -6741,10 +5696,10 @@
         <v>15</v>
       </c>
       <c r="G36" t="n">
-        <v>-26.5</v>
+        <v>-28.5</v>
       </c>
       <c r="H36" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I36" t="n">
         <v>9.9</v>
@@ -6753,19 +5708,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K36" t="n">
-        <v>2.4381</v>
+        <v>2.7557</v>
       </c>
       <c r="L36" t="n">
-        <v>133.7354</v>
+        <v>143.8135</v>
       </c>
       <c r="M36" t="n">
         <v>0.99603</v>
       </c>
       <c r="N36" t="n">
-        <v>1.1298</v>
+        <v>1.1138</v>
       </c>
       <c r="O36" t="n">
-        <v>0.1069</v>
+        <v>0.10842</v>
       </c>
       <c r="P36" t="n">
         <v>0.12092</v>
@@ -6774,16 +5729,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R36" t="n">
-        <v>1.1718</v>
+        <v>1.3202</v>
       </c>
       <c r="S36" t="n">
         <v>0.03</v>
       </c>
       <c r="T36" t="n">
-        <v>3.2993</v>
+        <v>3.4464</v>
       </c>
       <c r="U36" t="n">
-        <v>0.45111</v>
+        <v>0.47193</v>
       </c>
       <c r="V36" t="n">
         <v>44.89</v>
@@ -6861,10 +5816,10 @@
         <v>15</v>
       </c>
       <c r="G37" t="n">
-        <v>-26</v>
+        <v>-28.5</v>
       </c>
       <c r="H37" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I37" t="n">
         <v>9.9</v>
@@ -6873,19 +5828,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K37" t="n">
-        <v>2.6017</v>
+        <v>2.5467</v>
       </c>
       <c r="L37" t="n">
-        <v>131.2158</v>
+        <v>143.8135</v>
       </c>
       <c r="M37" t="n">
         <v>0.99603</v>
       </c>
       <c r="N37" t="n">
-        <v>1.1214</v>
+        <v>1.1243</v>
       </c>
       <c r="O37" t="n">
-        <v>0.10768</v>
+        <v>0.10742</v>
       </c>
       <c r="P37" t="n">
         <v>0.12092</v>
@@ -6894,16 +5849,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R37" t="n">
-        <v>1.3202</v>
+        <v>1.1718</v>
       </c>
       <c r="S37" t="n">
         <v>0.03</v>
       </c>
       <c r="T37" t="n">
-        <v>3.4464</v>
+        <v>3.2993</v>
       </c>
       <c r="U37" t="n">
-        <v>0.47193</v>
+        <v>0.45111</v>
       </c>
       <c r="V37" t="n">
         <v>44.89</v>
@@ -6981,10 +5936,10 @@
         <v>15</v>
       </c>
       <c r="G38" t="n">
-        <v>-26</v>
+        <v>-28</v>
       </c>
       <c r="H38" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I38" t="n">
         <v>9.9</v>
@@ -6993,19 +5948,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K38" t="n">
-        <v>2.411</v>
+        <v>2.7249</v>
       </c>
       <c r="L38" t="n">
-        <v>131.2158</v>
+        <v>141.294</v>
       </c>
       <c r="M38" t="n">
         <v>0.99603</v>
       </c>
       <c r="N38" t="n">
-        <v>1.1312</v>
+        <v>1.1153</v>
       </c>
       <c r="O38" t="n">
-        <v>0.10677</v>
+        <v>0.10827</v>
       </c>
       <c r="P38" t="n">
         <v>0.12092</v>
@@ -7014,16 +5969,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R38" t="n">
-        <v>1.1718</v>
+        <v>1.3202</v>
       </c>
       <c r="S38" t="n">
         <v>0.03</v>
       </c>
       <c r="T38" t="n">
-        <v>3.2993</v>
+        <v>3.4464</v>
       </c>
       <c r="U38" t="n">
-        <v>0.45111</v>
+        <v>0.47193</v>
       </c>
       <c r="V38" t="n">
         <v>44.89</v>
@@ -7098,13 +6053,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39" t="n">
-        <v>-29.5</v>
+        <v>-28</v>
       </c>
       <c r="H39" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I39" t="n">
         <v>9.9</v>
@@ -7113,19 +6068,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K39" t="n">
-        <v>2.8173</v>
+        <v>2.5195</v>
       </c>
       <c r="L39" t="n">
-        <v>148.8526</v>
+        <v>141.294</v>
       </c>
       <c r="M39" t="n">
         <v>0.99603</v>
       </c>
       <c r="N39" t="n">
-        <v>1.1107</v>
+        <v>1.1257</v>
       </c>
       <c r="O39" t="n">
-        <v>0.10872</v>
+        <v>0.10729</v>
       </c>
       <c r="P39" t="n">
         <v>0.12092</v>
@@ -7134,16 +6089,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R39" t="n">
-        <v>1.3202</v>
+        <v>1.1718</v>
       </c>
       <c r="S39" t="n">
         <v>0.03</v>
       </c>
       <c r="T39" t="n">
-        <v>3.4464</v>
+        <v>3.2993</v>
       </c>
       <c r="U39" t="n">
-        <v>0.47193</v>
+        <v>0.45111</v>
       </c>
       <c r="V39" t="n">
         <v>44.89</v>
@@ -7170,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>349500</v>
+        <v>324000</v>
       </c>
       <c r="AE39" t="n">
-        <v>278.81</v>
+        <v>261.01</v>
       </c>
       <c r="AF39" t="n">
         <v>0.22</v>
@@ -7218,13 +6173,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G40" t="n">
-        <v>-29.5</v>
+        <v>-27.5</v>
       </c>
       <c r="H40" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I40" t="n">
         <v>9.9</v>
@@ -7233,19 +6188,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K40" t="n">
-        <v>2.6009</v>
+        <v>2.6941</v>
       </c>
       <c r="L40" t="n">
-        <v>148.8526</v>
+        <v>138.7744</v>
       </c>
       <c r="M40" t="n">
         <v>0.99603</v>
       </c>
       <c r="N40" t="n">
-        <v>1.1216</v>
+        <v>1.1168</v>
       </c>
       <c r="O40" t="n">
-        <v>0.10768</v>
+        <v>0.10813</v>
       </c>
       <c r="P40" t="n">
         <v>0.12092</v>
@@ -7254,16 +6209,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R40" t="n">
-        <v>1.1718</v>
+        <v>1.3202</v>
       </c>
       <c r="S40" t="n">
         <v>0.03</v>
       </c>
       <c r="T40" t="n">
-        <v>3.2993</v>
+        <v>3.4464</v>
       </c>
       <c r="U40" t="n">
-        <v>0.45111</v>
+        <v>0.47193</v>
       </c>
       <c r="V40" t="n">
         <v>44.89</v>
@@ -7290,10 +6245,10 @@
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>349500</v>
+        <v>324000</v>
       </c>
       <c r="AE40" t="n">
-        <v>278.81</v>
+        <v>261.01</v>
       </c>
       <c r="AF40" t="n">
         <v>0.22</v>
@@ -7338,13 +6293,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41" t="n">
-        <v>-29</v>
+        <v>-27.5</v>
       </c>
       <c r="H41" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I41" t="n">
         <v>9.9</v>
@@ -7353,19 +6308,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K41" t="n">
-        <v>2.7865</v>
+        <v>2.4924</v>
       </c>
       <c r="L41" t="n">
-        <v>146.3331</v>
+        <v>138.7744</v>
       </c>
       <c r="M41" t="n">
         <v>0.99603</v>
       </c>
       <c r="N41" t="n">
-        <v>1.1123</v>
+        <v>1.1271</v>
       </c>
       <c r="O41" t="n">
-        <v>0.10857</v>
+        <v>0.10716</v>
       </c>
       <c r="P41" t="n">
         <v>0.12092</v>
@@ -7374,16 +6329,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R41" t="n">
-        <v>1.3202</v>
+        <v>1.1718</v>
       </c>
       <c r="S41" t="n">
         <v>0.03</v>
       </c>
       <c r="T41" t="n">
-        <v>3.4464</v>
+        <v>3.2993</v>
       </c>
       <c r="U41" t="n">
-        <v>0.47193</v>
+        <v>0.45111</v>
       </c>
       <c r="V41" t="n">
         <v>44.89</v>
@@ -7410,10 +6365,10 @@
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>349500</v>
+        <v>324000</v>
       </c>
       <c r="AE41" t="n">
-        <v>278.81</v>
+        <v>261.01</v>
       </c>
       <c r="AF41" t="n">
         <v>0.22</v>
@@ -7458,13 +6413,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G42" t="n">
-        <v>-29</v>
+        <v>-27</v>
       </c>
       <c r="H42" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I42" t="n">
         <v>9.9</v>
@@ -7473,19 +6428,19 @@
         <v>999981.0039</v>
       </c>
       <c r="K42" t="n">
-        <v>2.5738</v>
+        <v>2.6633</v>
       </c>
       <c r="L42" t="n">
-        <v>146.3331</v>
+        <v>136.2549</v>
       </c>
       <c r="M42" t="n">
         <v>0.99603</v>
       </c>
       <c r="N42" t="n">
-        <v>1.123</v>
+        <v>1.1183</v>
       </c>
       <c r="O42" t="n">
-        <v>0.10755</v>
+        <v>0.10798</v>
       </c>
       <c r="P42" t="n">
         <v>0.12092</v>
@@ -7494,16 +6449,16 @@
         <v>2.2204e-14</v>
       </c>
       <c r="R42" t="n">
-        <v>1.1718</v>
+        <v>1.3202</v>
       </c>
       <c r="S42" t="n">
         <v>0.03</v>
       </c>
       <c r="T42" t="n">
-        <v>3.2993</v>
+        <v>3.4464</v>
       </c>
       <c r="U42" t="n">
-        <v>0.45111</v>
+        <v>0.47193</v>
       </c>
       <c r="V42" t="n">
         <v>44.89</v>
@@ -7530,10 +6485,10 @@
         <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>349500</v>
+        <v>324000</v>
       </c>
       <c r="AE42" t="n">
-        <v>278.81</v>
+        <v>261.01</v>
       </c>
       <c r="AF42" t="n">
         <v>0.22</v>
@@ -7578,82 +6533,82 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G43" t="n">
-        <v>-32.5</v>
+        <v>-27</v>
       </c>
       <c r="H43" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I43" t="n">
         <v>9.9</v>
       </c>
       <c r="J43" t="n">
-        <v>1000000</v>
+        <v>999981.0039</v>
       </c>
       <c r="K43" t="n">
-        <v>5.7016</v>
+        <v>2.4653</v>
       </c>
       <c r="L43" t="n">
-        <v>12.5884</v>
+        <v>136.2549</v>
       </c>
       <c r="M43" t="n">
-        <v>0.96607</v>
+        <v>0.99603</v>
       </c>
       <c r="N43" t="n">
-        <v>406.9611</v>
+        <v>1.1284</v>
       </c>
       <c r="O43" t="n">
-        <v>0.023715</v>
+        <v>0.10703</v>
       </c>
       <c r="P43" t="n">
-        <v>9.173299999999999</v>
+        <v>0.12092</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.9968900000000001</v>
+        <v>2.2204e-14</v>
       </c>
       <c r="R43" t="n">
-        <v>919407.0862</v>
+        <v>1.1718</v>
       </c>
       <c r="S43" t="n">
-        <v>0.027942</v>
+        <v>0.03</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0039568</v>
+        <v>3.2993</v>
       </c>
       <c r="U43" t="n">
-        <v>0.37576</v>
+        <v>0.45111</v>
       </c>
       <c r="V43" t="n">
-        <v>249215.558</v>
+        <v>44.89</v>
       </c>
       <c r="W43" t="n">
-        <v>0.012141</v>
+        <v>0.02</v>
       </c>
       <c r="X43" t="n">
-        <v>0.005996</v>
+        <v>0.3515</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.40183</v>
+        <v>0.62908</v>
       </c>
       <c r="Z43" t="n">
         <v>0.2</v>
       </c>
       <c r="AA43" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AB43" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC43" t="n">
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>322000</v>
+        <v>324000</v>
       </c>
       <c r="AE43" t="n">
-        <v>296.61</v>
+        <v>261.01</v>
       </c>
       <c r="AF43" t="n">
         <v>0.22</v>
@@ -7665,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.92663</v>
+        <v>0.97698</v>
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
@@ -7698,82 +6653,82 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G44" t="n">
-        <v>-32.5</v>
+        <v>-26.5</v>
       </c>
       <c r="H44" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I44" t="n">
         <v>9.9</v>
       </c>
       <c r="J44" t="n">
-        <v>1000000</v>
+        <v>999981.0039</v>
       </c>
       <c r="K44" t="n">
-        <v>5.1419</v>
+        <v>2.6325</v>
       </c>
       <c r="L44" t="n">
-        <v>12.5884</v>
+        <v>133.7354</v>
       </c>
       <c r="M44" t="n">
-        <v>0.96607</v>
+        <v>0.99603</v>
       </c>
       <c r="N44" t="n">
-        <v>288.8111</v>
+        <v>1.1199</v>
       </c>
       <c r="O44" t="n">
-        <v>0.032796</v>
+        <v>0.10783</v>
       </c>
       <c r="P44" t="n">
-        <v>9.173299999999999</v>
+        <v>0.12092</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.9968900000000001</v>
+        <v>2.2204e-14</v>
       </c>
       <c r="R44" t="n">
-        <v>919407.0862</v>
+        <v>1.3202</v>
       </c>
       <c r="S44" t="n">
-        <v>0.027942</v>
+        <v>0.03</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0039568</v>
+        <v>3.4464</v>
       </c>
       <c r="U44" t="n">
-        <v>0.37576</v>
+        <v>0.47193</v>
       </c>
       <c r="V44" t="n">
-        <v>249215.558</v>
+        <v>44.89</v>
       </c>
       <c r="W44" t="n">
-        <v>0.012141</v>
+        <v>0.02</v>
       </c>
       <c r="X44" t="n">
-        <v>0.005996</v>
+        <v>0.3515</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.40183</v>
+        <v>0.62908</v>
       </c>
       <c r="Z44" t="n">
         <v>0.2</v>
       </c>
       <c r="AA44" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AB44" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC44" t="n">
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>322000</v>
+        <v>324000</v>
       </c>
       <c r="AE44" t="n">
-        <v>296.61</v>
+        <v>261.01</v>
       </c>
       <c r="AF44" t="n">
         <v>0.22</v>
@@ -7785,7 +6740,7 @@
         <v>1</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.92663</v>
+        <v>0.97698</v>
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
@@ -7818,82 +6773,82 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G45" t="n">
-        <v>-32</v>
+        <v>-26.5</v>
       </c>
       <c r="H45" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I45" t="n">
         <v>9.9</v>
       </c>
       <c r="J45" t="n">
-        <v>1000000</v>
+        <v>999981.0039</v>
       </c>
       <c r="K45" t="n">
-        <v>5.6293</v>
+        <v>2.4381</v>
       </c>
       <c r="L45" t="n">
-        <v>12.3978</v>
+        <v>133.7354</v>
       </c>
       <c r="M45" t="n">
-        <v>0.96607</v>
+        <v>0.99603</v>
       </c>
       <c r="N45" t="n">
-        <v>386.8209</v>
+        <v>1.1298</v>
       </c>
       <c r="O45" t="n">
-        <v>0.024888</v>
+        <v>0.1069</v>
       </c>
       <c r="P45" t="n">
-        <v>9.173299999999999</v>
+        <v>0.12092</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.9968900000000001</v>
+        <v>2.2204e-14</v>
       </c>
       <c r="R45" t="n">
-        <v>919407.0862</v>
+        <v>1.1718</v>
       </c>
       <c r="S45" t="n">
-        <v>0.027942</v>
+        <v>0.03</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0039568</v>
+        <v>3.2993</v>
       </c>
       <c r="U45" t="n">
-        <v>0.37576</v>
+        <v>0.45111</v>
       </c>
       <c r="V45" t="n">
-        <v>249215.558</v>
+        <v>44.89</v>
       </c>
       <c r="W45" t="n">
-        <v>0.012141</v>
+        <v>0.02</v>
       </c>
       <c r="X45" t="n">
-        <v>0.005996</v>
+        <v>0.3515</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.40183</v>
+        <v>0.62908</v>
       </c>
       <c r="Z45" t="n">
         <v>0.2</v>
       </c>
       <c r="AA45" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AB45" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC45" t="n">
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>322000</v>
+        <v>324000</v>
       </c>
       <c r="AE45" t="n">
-        <v>296.61</v>
+        <v>261.01</v>
       </c>
       <c r="AF45" t="n">
         <v>0.22</v>
@@ -7905,7 +6860,7 @@
         <v>1</v>
       </c>
       <c r="AI45" t="n">
-        <v>0.92663</v>
+        <v>0.97698</v>
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
@@ -7938,82 +6893,82 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G46" t="n">
-        <v>-32</v>
+        <v>-26</v>
       </c>
       <c r="H46" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I46" t="n">
         <v>9.9</v>
       </c>
       <c r="J46" t="n">
-        <v>1000000</v>
+        <v>999981.0039</v>
       </c>
       <c r="K46" t="n">
-        <v>5.0782</v>
+        <v>2.6017</v>
       </c>
       <c r="L46" t="n">
-        <v>12.3978</v>
+        <v>131.2158</v>
       </c>
       <c r="M46" t="n">
-        <v>0.96607</v>
+        <v>0.99603</v>
       </c>
       <c r="N46" t="n">
-        <v>279.7063</v>
+        <v>1.1214</v>
       </c>
       <c r="O46" t="n">
-        <v>0.03383</v>
+        <v>0.10768</v>
       </c>
       <c r="P46" t="n">
-        <v>9.173299999999999</v>
+        <v>0.12092</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.9968900000000001</v>
+        <v>2.2204e-14</v>
       </c>
       <c r="R46" t="n">
-        <v>919407.0862</v>
+        <v>1.3202</v>
       </c>
       <c r="S46" t="n">
-        <v>0.027942</v>
+        <v>0.03</v>
       </c>
       <c r="T46" t="n">
-        <v>0.0039568</v>
+        <v>3.4464</v>
       </c>
       <c r="U46" t="n">
-        <v>0.37576</v>
+        <v>0.47193</v>
       </c>
       <c r="V46" t="n">
-        <v>249215.558</v>
+        <v>44.89</v>
       </c>
       <c r="W46" t="n">
-        <v>0.012141</v>
+        <v>0.02</v>
       </c>
       <c r="X46" t="n">
-        <v>0.005996</v>
+        <v>0.3515</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.40183</v>
+        <v>0.62908</v>
       </c>
       <c r="Z46" t="n">
         <v>0.2</v>
       </c>
       <c r="AA46" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AB46" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC46" t="n">
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>322000</v>
+        <v>324000</v>
       </c>
       <c r="AE46" t="n">
-        <v>296.61</v>
+        <v>261.01</v>
       </c>
       <c r="AF46" t="n">
         <v>0.22</v>
@@ -8025,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="AI46" t="n">
-        <v>0.92663</v>
+        <v>0.97698</v>
       </c>
       <c r="AJ46" t="inlineStr">
         <is>
@@ -8058,82 +7013,82 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G47" t="n">
-        <v>-31.5</v>
+        <v>-26</v>
       </c>
       <c r="H47" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I47" t="n">
         <v>9.9</v>
       </c>
       <c r="J47" t="n">
-        <v>1000000</v>
+        <v>999981.0039</v>
       </c>
       <c r="K47" t="n">
-        <v>5.5569</v>
+        <v>2.411</v>
       </c>
       <c r="L47" t="n">
-        <v>12.2072</v>
+        <v>131.2158</v>
       </c>
       <c r="M47" t="n">
-        <v>0.96607</v>
+        <v>0.99603</v>
       </c>
       <c r="N47" t="n">
-        <v>368.5801</v>
+        <v>1.1312</v>
       </c>
       <c r="O47" t="n">
-        <v>0.026062</v>
+        <v>0.10677</v>
       </c>
       <c r="P47" t="n">
-        <v>9.173299999999999</v>
+        <v>0.12092</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.9968900000000001</v>
+        <v>2.2204e-14</v>
       </c>
       <c r="R47" t="n">
-        <v>919407.0862</v>
+        <v>1.1718</v>
       </c>
       <c r="S47" t="n">
-        <v>0.027942</v>
+        <v>0.03</v>
       </c>
       <c r="T47" t="n">
-        <v>0.0039568</v>
+        <v>3.2993</v>
       </c>
       <c r="U47" t="n">
-        <v>0.37576</v>
+        <v>0.45111</v>
       </c>
       <c r="V47" t="n">
-        <v>249215.558</v>
+        <v>44.89</v>
       </c>
       <c r="W47" t="n">
-        <v>0.012141</v>
+        <v>0.02</v>
       </c>
       <c r="X47" t="n">
-        <v>0.005996</v>
+        <v>0.3515</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.40183</v>
+        <v>0.62908</v>
       </c>
       <c r="Z47" t="n">
         <v>0.2</v>
       </c>
       <c r="AA47" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AB47" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC47" t="n">
         <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>322000</v>
+        <v>324000</v>
       </c>
       <c r="AE47" t="n">
-        <v>296.61</v>
+        <v>261.01</v>
       </c>
       <c r="AF47" t="n">
         <v>0.22</v>
@@ -8145,7 +7100,7 @@
         <v>1</v>
       </c>
       <c r="AI47" t="n">
-        <v>0.92663</v>
+        <v>0.97698</v>
       </c>
       <c r="AJ47" t="inlineStr">
         <is>
@@ -8178,82 +7133,82 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G48" t="n">
-        <v>-31.5</v>
+        <v>-29.5</v>
       </c>
       <c r="H48" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I48" t="n">
         <v>9.9</v>
       </c>
       <c r="J48" t="n">
-        <v>1000000</v>
+        <v>999981.0039</v>
       </c>
       <c r="K48" t="n">
-        <v>5.0145</v>
+        <v>2.8173</v>
       </c>
       <c r="L48" t="n">
-        <v>12.2072</v>
+        <v>148.8526</v>
       </c>
       <c r="M48" t="n">
-        <v>0.96607</v>
+        <v>0.99603</v>
       </c>
       <c r="N48" t="n">
-        <v>271.158</v>
+        <v>1.1107</v>
       </c>
       <c r="O48" t="n">
-        <v>0.034864</v>
+        <v>0.10872</v>
       </c>
       <c r="P48" t="n">
-        <v>9.173299999999999</v>
+        <v>0.12092</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.9968900000000001</v>
+        <v>2.2204e-14</v>
       </c>
       <c r="R48" t="n">
-        <v>919407.0862</v>
+        <v>1.3202</v>
       </c>
       <c r="S48" t="n">
-        <v>0.027942</v>
+        <v>0.03</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0039568</v>
+        <v>3.4464</v>
       </c>
       <c r="U48" t="n">
-        <v>0.37576</v>
+        <v>0.47193</v>
       </c>
       <c r="V48" t="n">
-        <v>249215.558</v>
+        <v>44.89</v>
       </c>
       <c r="W48" t="n">
-        <v>0.012141</v>
+        <v>0.02</v>
       </c>
       <c r="X48" t="n">
-        <v>0.005996</v>
+        <v>0.3515</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.40183</v>
+        <v>0.62908</v>
       </c>
       <c r="Z48" t="n">
         <v>0.2</v>
       </c>
       <c r="AA48" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AB48" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC48" t="n">
         <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>322000</v>
+        <v>349500</v>
       </c>
       <c r="AE48" t="n">
-        <v>296.61</v>
+        <v>278.81</v>
       </c>
       <c r="AF48" t="n">
         <v>0.22</v>
@@ -8265,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.92663</v>
+        <v>0.97698</v>
       </c>
       <c r="AJ48" t="inlineStr">
         <is>
@@ -8298,82 +7253,82 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G49" t="n">
-        <v>-31</v>
+        <v>-29.5</v>
       </c>
       <c r="H49" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I49" t="n">
         <v>9.9</v>
       </c>
       <c r="J49" t="n">
-        <v>1000000</v>
+        <v>999981.0039</v>
       </c>
       <c r="K49" t="n">
-        <v>5.4846</v>
+        <v>2.6009</v>
       </c>
       <c r="L49" t="n">
-        <v>12.0166</v>
+        <v>148.8526</v>
       </c>
       <c r="M49" t="n">
-        <v>0.96607</v>
+        <v>0.99603</v>
       </c>
       <c r="N49" t="n">
-        <v>351.9821</v>
+        <v>1.1216</v>
       </c>
       <c r="O49" t="n">
-        <v>0.027235</v>
+        <v>0.10768</v>
       </c>
       <c r="P49" t="n">
-        <v>9.173299999999999</v>
+        <v>0.12092</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.9968900000000001</v>
+        <v>2.2204e-14</v>
       </c>
       <c r="R49" t="n">
-        <v>919407.0862</v>
+        <v>1.1718</v>
       </c>
       <c r="S49" t="n">
-        <v>0.027942</v>
+        <v>0.03</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0039568</v>
+        <v>3.2993</v>
       </c>
       <c r="U49" t="n">
-        <v>0.37576</v>
+        <v>0.45111</v>
       </c>
       <c r="V49" t="n">
-        <v>249215.558</v>
+        <v>44.89</v>
       </c>
       <c r="W49" t="n">
-        <v>0.012141</v>
+        <v>0.02</v>
       </c>
       <c r="X49" t="n">
-        <v>0.005996</v>
+        <v>0.3515</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.40183</v>
+        <v>0.62908</v>
       </c>
       <c r="Z49" t="n">
         <v>0.2</v>
       </c>
       <c r="AA49" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AB49" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC49" t="n">
         <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>322000</v>
+        <v>349500</v>
       </c>
       <c r="AE49" t="n">
-        <v>296.61</v>
+        <v>278.81</v>
       </c>
       <c r="AF49" t="n">
         <v>0.22</v>
@@ -8385,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="AI49" t="n">
-        <v>0.92663</v>
+        <v>0.97698</v>
       </c>
       <c r="AJ49" t="inlineStr">
         <is>
@@ -8418,82 +7373,82 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G50" t="n">
-        <v>-31</v>
+        <v>-29</v>
       </c>
       <c r="H50" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I50" t="n">
         <v>9.9</v>
       </c>
       <c r="J50" t="n">
-        <v>1000000</v>
+        <v>999981.0039</v>
       </c>
       <c r="K50" t="n">
-        <v>4.9507</v>
+        <v>2.7865</v>
       </c>
       <c r="L50" t="n">
-        <v>12.0166</v>
+        <v>146.3331</v>
       </c>
       <c r="M50" t="n">
-        <v>0.96607</v>
+        <v>0.99603</v>
       </c>
       <c r="N50" t="n">
-        <v>263.1167</v>
+        <v>1.1123</v>
       </c>
       <c r="O50" t="n">
-        <v>0.035898</v>
+        <v>0.10857</v>
       </c>
       <c r="P50" t="n">
-        <v>9.173299999999999</v>
+        <v>0.12092</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.9968900000000001</v>
+        <v>2.2204e-14</v>
       </c>
       <c r="R50" t="n">
-        <v>919407.0862</v>
+        <v>1.3202</v>
       </c>
       <c r="S50" t="n">
-        <v>0.027942</v>
+        <v>0.03</v>
       </c>
       <c r="T50" t="n">
-        <v>0.0039568</v>
+        <v>3.4464</v>
       </c>
       <c r="U50" t="n">
-        <v>0.37576</v>
+        <v>0.47193</v>
       </c>
       <c r="V50" t="n">
-        <v>249215.558</v>
+        <v>44.89</v>
       </c>
       <c r="W50" t="n">
-        <v>0.012141</v>
+        <v>0.02</v>
       </c>
       <c r="X50" t="n">
-        <v>0.005996</v>
+        <v>0.3515</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.40183</v>
+        <v>0.62908</v>
       </c>
       <c r="Z50" t="n">
         <v>0.2</v>
       </c>
       <c r="AA50" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AB50" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC50" t="n">
         <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>322000</v>
+        <v>349500</v>
       </c>
       <c r="AE50" t="n">
-        <v>296.61</v>
+        <v>278.81</v>
       </c>
       <c r="AF50" t="n">
         <v>0.22</v>
@@ -8505,7 +7460,7 @@
         <v>1</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.92663</v>
+        <v>0.97698</v>
       </c>
       <c r="AJ50" t="inlineStr">
         <is>
@@ -8538,82 +7493,82 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G51" t="n">
-        <v>-30.5</v>
+        <v>-29</v>
       </c>
       <c r="H51" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I51" t="n">
         <v>9.9</v>
       </c>
       <c r="J51" t="n">
-        <v>1000000</v>
+        <v>999981.0039</v>
       </c>
       <c r="K51" t="n">
-        <v>5.4123</v>
+        <v>2.5738</v>
       </c>
       <c r="L51" t="n">
-        <v>11.826</v>
+        <v>146.3331</v>
       </c>
       <c r="M51" t="n">
-        <v>0.96607</v>
+        <v>0.99603</v>
       </c>
       <c r="N51" t="n">
-        <v>336.8146</v>
+        <v>1.123</v>
       </c>
       <c r="O51" t="n">
-        <v>0.028409</v>
+        <v>0.10755</v>
       </c>
       <c r="P51" t="n">
-        <v>9.173299999999999</v>
+        <v>0.12092</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.9968900000000001</v>
+        <v>2.2204e-14</v>
       </c>
       <c r="R51" t="n">
-        <v>919407.0862</v>
+        <v>1.1718</v>
       </c>
       <c r="S51" t="n">
-        <v>0.027942</v>
+        <v>0.03</v>
       </c>
       <c r="T51" t="n">
-        <v>0.0039568</v>
+        <v>3.2993</v>
       </c>
       <c r="U51" t="n">
-        <v>0.37576</v>
+        <v>0.45111</v>
       </c>
       <c r="V51" t="n">
-        <v>249215.558</v>
+        <v>44.89</v>
       </c>
       <c r="W51" t="n">
-        <v>0.012141</v>
+        <v>0.02</v>
       </c>
       <c r="X51" t="n">
-        <v>0.005996</v>
+        <v>0.3515</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.40183</v>
+        <v>0.62908</v>
       </c>
       <c r="Z51" t="n">
         <v>0.2</v>
       </c>
       <c r="AA51" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AB51" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC51" t="n">
         <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>322000</v>
+        <v>349500</v>
       </c>
       <c r="AE51" t="n">
-        <v>296.61</v>
+        <v>278.81</v>
       </c>
       <c r="AF51" t="n">
         <v>0.22</v>
@@ -8625,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="AI51" t="n">
-        <v>0.92663</v>
+        <v>0.97698</v>
       </c>
       <c r="AJ51" t="inlineStr">
         <is>
@@ -8661,10 +7616,10 @@
         <v>17</v>
       </c>
       <c r="G52" t="n">
-        <v>-30.5</v>
+        <v>-32.5</v>
       </c>
       <c r="H52" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I52" t="n">
         <v>9.9</v>
@@ -8673,19 +7628,19 @@
         <v>1000000</v>
       </c>
       <c r="K52" t="n">
-        <v>4.887</v>
+        <v>5.7016</v>
       </c>
       <c r="L52" t="n">
-        <v>11.826</v>
+        <v>12.5884</v>
       </c>
       <c r="M52" t="n">
         <v>0.96607</v>
       </c>
       <c r="N52" t="n">
-        <v>255.5386</v>
+        <v>406.9611</v>
       </c>
       <c r="O52" t="n">
-        <v>0.036932</v>
+        <v>0.023715</v>
       </c>
       <c r="P52" t="n">
         <v>9.173299999999999</v>
@@ -8781,10 +7736,10 @@
         <v>17</v>
       </c>
       <c r="G53" t="n">
-        <v>-30</v>
+        <v>-32.5</v>
       </c>
       <c r="H53" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I53" t="n">
         <v>9.9</v>
@@ -8793,19 +7748,19 @@
         <v>1000000</v>
       </c>
       <c r="K53" t="n">
-        <v>5.3399</v>
+        <v>5.1419</v>
       </c>
       <c r="L53" t="n">
-        <v>11.6355</v>
+        <v>12.5884</v>
       </c>
       <c r="M53" t="n">
         <v>0.96607</v>
       </c>
       <c r="N53" t="n">
-        <v>322.9003</v>
+        <v>288.8111</v>
       </c>
       <c r="O53" t="n">
-        <v>0.029583</v>
+        <v>0.032796</v>
       </c>
       <c r="P53" t="n">
         <v>9.173299999999999</v>
@@ -8901,10 +7856,10 @@
         <v>17</v>
       </c>
       <c r="G54" t="n">
-        <v>-30</v>
+        <v>-32</v>
       </c>
       <c r="H54" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I54" t="n">
         <v>9.9</v>
@@ -8913,19 +7868,19 @@
         <v>1000000</v>
       </c>
       <c r="K54" t="n">
-        <v>4.8233</v>
+        <v>5.6293</v>
       </c>
       <c r="L54" t="n">
-        <v>11.6355</v>
+        <v>12.3978</v>
       </c>
       <c r="M54" t="n">
         <v>0.96607</v>
       </c>
       <c r="N54" t="n">
-        <v>248.3848</v>
+        <v>386.8209</v>
       </c>
       <c r="O54" t="n">
-        <v>0.037966</v>
+        <v>0.024888</v>
       </c>
       <c r="P54" t="n">
         <v>9.173299999999999</v>
@@ -9018,13 +7973,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G55" t="n">
-        <v>-35.5</v>
+        <v>-32</v>
       </c>
       <c r="H55" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I55" t="n">
         <v>9.9</v>
@@ -9033,19 +7988,19 @@
         <v>1000000</v>
       </c>
       <c r="K55" t="n">
-        <v>6.1356</v>
+        <v>5.0782</v>
       </c>
       <c r="L55" t="n">
-        <v>13.732</v>
+        <v>12.3978</v>
       </c>
       <c r="M55" t="n">
         <v>0.96607</v>
       </c>
       <c r="N55" t="n">
-        <v>591.8547</v>
+        <v>279.7063</v>
       </c>
       <c r="O55" t="n">
-        <v>0.016673</v>
+        <v>0.03383</v>
       </c>
       <c r="P55" t="n">
         <v>9.173299999999999</v>
@@ -9090,10 +8045,10 @@
         <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>339850</v>
+        <v>322000</v>
       </c>
       <c r="AE55" t="n">
-        <v>323.31</v>
+        <v>296.61</v>
       </c>
       <c r="AF55" t="n">
         <v>0.22</v>
@@ -9138,13 +8093,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G56" t="n">
-        <v>-35.5</v>
+        <v>-31.5</v>
       </c>
       <c r="H56" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I56" t="n">
         <v>9.9</v>
@@ -9153,19 +8108,19 @@
         <v>1000000</v>
       </c>
       <c r="K56" t="n">
-        <v>5.5242</v>
+        <v>5.5569</v>
       </c>
       <c r="L56" t="n">
-        <v>13.732</v>
+        <v>12.2072</v>
       </c>
       <c r="M56" t="n">
         <v>0.96607</v>
       </c>
       <c r="N56" t="n">
-        <v>358.9088</v>
+        <v>368.5801</v>
       </c>
       <c r="O56" t="n">
-        <v>0.026593</v>
+        <v>0.026062</v>
       </c>
       <c r="P56" t="n">
         <v>9.173299999999999</v>
@@ -9210,10 +8165,10 @@
         <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>339850</v>
+        <v>322000</v>
       </c>
       <c r="AE56" t="n">
-        <v>323.31</v>
+        <v>296.61</v>
       </c>
       <c r="AF56" t="n">
         <v>0.22</v>
@@ -9258,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G57" t="n">
-        <v>-35</v>
+        <v>-31.5</v>
       </c>
       <c r="H57" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I57" t="n">
         <v>9.9</v>
@@ -9273,19 +8228,19 @@
         <v>1000000</v>
       </c>
       <c r="K57" t="n">
-        <v>6.0633</v>
+        <v>5.0145</v>
       </c>
       <c r="L57" t="n">
-        <v>13.5414</v>
+        <v>12.2072</v>
       </c>
       <c r="M57" t="n">
         <v>0.96607</v>
       </c>
       <c r="N57" t="n">
-        <v>550.1934</v>
+        <v>271.158</v>
       </c>
       <c r="O57" t="n">
-        <v>0.017846</v>
+        <v>0.034864</v>
       </c>
       <c r="P57" t="n">
         <v>9.173299999999999</v>
@@ -9330,10 +8285,10 @@
         <v>0</v>
       </c>
       <c r="AD57" t="n">
-        <v>339850</v>
+        <v>322000</v>
       </c>
       <c r="AE57" t="n">
-        <v>323.31</v>
+        <v>296.61</v>
       </c>
       <c r="AF57" t="n">
         <v>0.22</v>
@@ -9378,13 +8333,13 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G58" t="n">
-        <v>-35</v>
+        <v>-31</v>
       </c>
       <c r="H58" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I58" t="n">
         <v>9.9</v>
@@ -9393,19 +8348,19 @@
         <v>1000000</v>
       </c>
       <c r="K58" t="n">
-        <v>5.4605</v>
+        <v>5.4846</v>
       </c>
       <c r="L58" t="n">
-        <v>13.5414</v>
+        <v>12.0166</v>
       </c>
       <c r="M58" t="n">
         <v>0.96607</v>
       </c>
       <c r="N58" t="n">
-        <v>344.9548</v>
+        <v>351.9821</v>
       </c>
       <c r="O58" t="n">
-        <v>0.027627</v>
+        <v>0.027235</v>
       </c>
       <c r="P58" t="n">
         <v>9.173299999999999</v>
@@ -9450,10 +8405,10 @@
         <v>0</v>
       </c>
       <c r="AD58" t="n">
-        <v>339850</v>
+        <v>322000</v>
       </c>
       <c r="AE58" t="n">
-        <v>323.31</v>
+        <v>296.61</v>
       </c>
       <c r="AF58" t="n">
         <v>0.22</v>
@@ -9498,13 +8453,13 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G59" t="n">
-        <v>-34.5</v>
+        <v>-31</v>
       </c>
       <c r="H59" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I59" t="n">
         <v>9.9</v>
@@ -9513,19 +8468,19 @@
         <v>1000000</v>
       </c>
       <c r="K59" t="n">
-        <v>5.9909</v>
+        <v>4.9507</v>
       </c>
       <c r="L59" t="n">
-        <v>13.3508</v>
+        <v>12.0166</v>
       </c>
       <c r="M59" t="n">
         <v>0.96607</v>
       </c>
       <c r="N59" t="n">
-        <v>514.0115</v>
+        <v>263.1167</v>
       </c>
       <c r="O59" t="n">
-        <v>0.01902</v>
+        <v>0.035898</v>
       </c>
       <c r="P59" t="n">
         <v>9.173299999999999</v>
@@ -9570,10 +8525,10 @@
         <v>0</v>
       </c>
       <c r="AD59" t="n">
-        <v>339850</v>
+        <v>322000</v>
       </c>
       <c r="AE59" t="n">
-        <v>323.31</v>
+        <v>296.61</v>
       </c>
       <c r="AF59" t="n">
         <v>0.22</v>
@@ -9618,13 +8573,13 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G60" t="n">
-        <v>-34.5</v>
+        <v>-30.5</v>
       </c>
       <c r="H60" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I60" t="n">
         <v>9.9</v>
@@ -9633,19 +8588,19 @@
         <v>1000000</v>
       </c>
       <c r="K60" t="n">
-        <v>5.3968</v>
+        <v>5.4123</v>
       </c>
       <c r="L60" t="n">
-        <v>13.3508</v>
+        <v>11.826</v>
       </c>
       <c r="M60" t="n">
         <v>0.96607</v>
       </c>
       <c r="N60" t="n">
-        <v>332.0451</v>
+        <v>336.8146</v>
       </c>
       <c r="O60" t="n">
-        <v>0.028661</v>
+        <v>0.028409</v>
       </c>
       <c r="P60" t="n">
         <v>9.173299999999999</v>
@@ -9690,10 +8645,10 @@
         <v>0</v>
       </c>
       <c r="AD60" t="n">
-        <v>339850</v>
+        <v>322000</v>
       </c>
       <c r="AE60" t="n">
-        <v>323.31</v>
+        <v>296.61</v>
       </c>
       <c r="AF60" t="n">
         <v>0.22</v>
@@ -9738,13 +8693,13 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G61" t="n">
-        <v>-34</v>
+        <v>-30.5</v>
       </c>
       <c r="H61" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I61" t="n">
         <v>9.9</v>
@@ -9753,19 +8708,19 @@
         <v>1000000</v>
       </c>
       <c r="K61" t="n">
-        <v>5.9186</v>
+        <v>4.887</v>
       </c>
       <c r="L61" t="n">
-        <v>13.1602</v>
+        <v>11.826</v>
       </c>
       <c r="M61" t="n">
         <v>0.96607</v>
       </c>
       <c r="N61" t="n">
-        <v>482.2948</v>
+        <v>255.5386</v>
       </c>
       <c r="O61" t="n">
-        <v>0.020194</v>
+        <v>0.036932</v>
       </c>
       <c r="P61" t="n">
         <v>9.173299999999999</v>
@@ -9810,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="AD61" t="n">
-        <v>339850</v>
+        <v>322000</v>
       </c>
       <c r="AE61" t="n">
-        <v>323.31</v>
+        <v>296.61</v>
       </c>
       <c r="AF61" t="n">
         <v>0.22</v>
@@ -9858,13 +8813,13 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G62" t="n">
-        <v>-34</v>
+        <v>-30</v>
       </c>
       <c r="H62" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I62" t="n">
         <v>9.9</v>
@@ -9873,19 +8828,19 @@
         <v>1000000</v>
       </c>
       <c r="K62" t="n">
-        <v>5.3331</v>
+        <v>5.3399</v>
       </c>
       <c r="L62" t="n">
-        <v>13.1602</v>
+        <v>11.6355</v>
       </c>
       <c r="M62" t="n">
         <v>0.96607</v>
       </c>
       <c r="N62" t="n">
-        <v>320.0669</v>
+        <v>322.9003</v>
       </c>
       <c r="O62" t="n">
-        <v>0.029694</v>
+        <v>0.029583</v>
       </c>
       <c r="P62" t="n">
         <v>9.173299999999999</v>
@@ -9930,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AD62" t="n">
-        <v>339850</v>
+        <v>322000</v>
       </c>
       <c r="AE62" t="n">
-        <v>323.31</v>
+        <v>296.61</v>
       </c>
       <c r="AF62" t="n">
         <v>0.22</v>
@@ -9978,13 +8933,13 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G63" t="n">
-        <v>-33.5</v>
+        <v>-30</v>
       </c>
       <c r="H63" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I63" t="n">
         <v>9.9</v>
@@ -9993,19 +8948,19 @@
         <v>1000000</v>
       </c>
       <c r="K63" t="n">
-        <v>5.8463</v>
+        <v>4.8233</v>
       </c>
       <c r="L63" t="n">
-        <v>12.9696</v>
+        <v>11.6355</v>
       </c>
       <c r="M63" t="n">
         <v>0.96607</v>
       </c>
       <c r="N63" t="n">
-        <v>454.2648</v>
+        <v>248.3848</v>
       </c>
       <c r="O63" t="n">
-        <v>0.021367</v>
+        <v>0.037966</v>
       </c>
       <c r="P63" t="n">
         <v>9.173299999999999</v>
@@ -10050,10 +9005,10 @@
         <v>0</v>
       </c>
       <c r="AD63" t="n">
-        <v>339850</v>
+        <v>322000</v>
       </c>
       <c r="AE63" t="n">
-        <v>323.31</v>
+        <v>296.61</v>
       </c>
       <c r="AF63" t="n">
         <v>0.22</v>
@@ -10101,10 +9056,10 @@
         <v>18</v>
       </c>
       <c r="G64" t="n">
-        <v>-33.5</v>
+        <v>-35.5</v>
       </c>
       <c r="H64" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I64" t="n">
         <v>9.9</v>
@@ -10113,19 +9068,19 @@
         <v>1000000</v>
       </c>
       <c r="K64" t="n">
-        <v>5.2693</v>
+        <v>6.1356</v>
       </c>
       <c r="L64" t="n">
-        <v>12.9696</v>
+        <v>13.732</v>
       </c>
       <c r="M64" t="n">
         <v>0.96607</v>
       </c>
       <c r="N64" t="n">
-        <v>308.9228</v>
+        <v>591.8547</v>
       </c>
       <c r="O64" t="n">
-        <v>0.030728</v>
+        <v>0.016673</v>
       </c>
       <c r="P64" t="n">
         <v>9.173299999999999</v>
@@ -10221,10 +9176,10 @@
         <v>18</v>
       </c>
       <c r="G65" t="n">
-        <v>-33</v>
+        <v>-35.5</v>
       </c>
       <c r="H65" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I65" t="n">
         <v>9.9</v>
@@ -10233,19 +9188,19 @@
         <v>1000000</v>
       </c>
       <c r="K65" t="n">
-        <v>5.7739</v>
+        <v>5.5242</v>
       </c>
       <c r="L65" t="n">
-        <v>12.779</v>
+        <v>13.732</v>
       </c>
       <c r="M65" t="n">
         <v>0.96607</v>
       </c>
       <c r="N65" t="n">
-        <v>429.3139</v>
+        <v>358.9088</v>
       </c>
       <c r="O65" t="n">
-        <v>0.022541</v>
+        <v>0.026593</v>
       </c>
       <c r="P65" t="n">
         <v>9.173299999999999</v>
@@ -10341,10 +9296,10 @@
         <v>18</v>
       </c>
       <c r="G66" t="n">
-        <v>-33</v>
+        <v>-35</v>
       </c>
       <c r="H66" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I66" t="n">
         <v>9.9</v>
@@ -10353,19 +9308,19 @@
         <v>1000000</v>
       </c>
       <c r="K66" t="n">
-        <v>5.2056</v>
+        <v>6.0633</v>
       </c>
       <c r="L66" t="n">
-        <v>12.779</v>
+        <v>13.5414</v>
       </c>
       <c r="M66" t="n">
         <v>0.96607</v>
       </c>
       <c r="N66" t="n">
-        <v>298.5286</v>
+        <v>550.1934</v>
       </c>
       <c r="O66" t="n">
-        <v>0.031762</v>
+        <v>0.017846</v>
       </c>
       <c r="P66" t="n">
         <v>9.173299999999999</v>
@@ -10458,10 +9413,10 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G67" t="n">
-        <v>-38.5</v>
+        <v>-35</v>
       </c>
       <c r="H67" t="n">
         <v>42</v>
@@ -10473,19 +9428,19 @@
         <v>1000000</v>
       </c>
       <c r="K67" t="n">
-        <v>5.9065</v>
+        <v>5.4605</v>
       </c>
       <c r="L67" t="n">
-        <v>14.8755</v>
+        <v>13.5414</v>
       </c>
       <c r="M67" t="n">
         <v>0.96607</v>
       </c>
       <c r="N67" t="n">
-        <v>473.9394</v>
+        <v>344.9548</v>
       </c>
       <c r="O67" t="n">
-        <v>0.020389</v>
+        <v>0.027627</v>
       </c>
       <c r="P67" t="n">
         <v>9.173299999999999</v>
@@ -10530,10 +9485,10 @@
         <v>0</v>
       </c>
       <c r="AD67" t="n">
-        <v>357700</v>
+        <v>339850</v>
       </c>
       <c r="AE67" t="n">
-        <v>350.01</v>
+        <v>323.31</v>
       </c>
       <c r="AF67" t="n">
         <v>0.22</v>
@@ -10578,13 +9533,13 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G68" t="n">
-        <v>-38</v>
+        <v>-34.5</v>
       </c>
       <c r="H68" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I68" t="n">
         <v>9.9</v>
@@ -10593,19 +9548,19 @@
         <v>1000000</v>
       </c>
       <c r="K68" t="n">
-        <v>5.8428</v>
+        <v>5.9909</v>
       </c>
       <c r="L68" t="n">
-        <v>14.6849</v>
+        <v>13.3508</v>
       </c>
       <c r="M68" t="n">
         <v>0.96607</v>
       </c>
       <c r="N68" t="n">
-        <v>449.9068</v>
+        <v>514.0115</v>
       </c>
       <c r="O68" t="n">
-        <v>0.021423</v>
+        <v>0.01902</v>
       </c>
       <c r="P68" t="n">
         <v>9.173299999999999</v>
@@ -10650,10 +9605,10 @@
         <v>0</v>
       </c>
       <c r="AD68" t="n">
-        <v>357700</v>
+        <v>339850</v>
       </c>
       <c r="AE68" t="n">
-        <v>350.01</v>
+        <v>323.31</v>
       </c>
       <c r="AF68" t="n">
         <v>0.22</v>
@@ -10698,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G69" t="n">
-        <v>-37.5</v>
+        <v>-34.5</v>
       </c>
       <c r="H69" t="n">
         <v>42</v>
@@ -10713,19 +9668,19 @@
         <v>1000000</v>
       </c>
       <c r="K69" t="n">
-        <v>5.7791</v>
+        <v>5.3968</v>
       </c>
       <c r="L69" t="n">
-        <v>14.4943</v>
+        <v>13.3508</v>
       </c>
       <c r="M69" t="n">
         <v>0.96607</v>
       </c>
       <c r="N69" t="n">
-        <v>428.1939</v>
+        <v>332.0451</v>
       </c>
       <c r="O69" t="n">
-        <v>0.022457</v>
+        <v>0.028661</v>
       </c>
       <c r="P69" t="n">
         <v>9.173299999999999</v>
@@ -10770,10 +9725,10 @@
         <v>0</v>
       </c>
       <c r="AD69" t="n">
-        <v>357700</v>
+        <v>339850</v>
       </c>
       <c r="AE69" t="n">
-        <v>350.01</v>
+        <v>323.31</v>
       </c>
       <c r="AF69" t="n">
         <v>0.22</v>
@@ -10818,10 +9773,10 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G70" t="n">
-        <v>-37</v>
+        <v>-34</v>
       </c>
       <c r="H70" t="n">
         <v>37</v>
@@ -10833,19 +9788,19 @@
         <v>1000000</v>
       </c>
       <c r="K70" t="n">
-        <v>6.3526</v>
+        <v>5.9186</v>
       </c>
       <c r="L70" t="n">
-        <v>14.3037</v>
+        <v>13.1602</v>
       </c>
       <c r="M70" t="n">
         <v>0.96607</v>
       </c>
       <c r="N70" t="n">
-        <v>710.1575</v>
+        <v>482.2948</v>
       </c>
       <c r="O70" t="n">
-        <v>0.013152</v>
+        <v>0.020194</v>
       </c>
       <c r="P70" t="n">
         <v>9.173299999999999</v>
@@ -10890,10 +9845,10 @@
         <v>0</v>
       </c>
       <c r="AD70" t="n">
-        <v>357700</v>
+        <v>339850</v>
       </c>
       <c r="AE70" t="n">
-        <v>350.01</v>
+        <v>323.31</v>
       </c>
       <c r="AF70" t="n">
         <v>0.22</v>
@@ -10938,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G71" t="n">
-        <v>-37</v>
+        <v>-34</v>
       </c>
       <c r="H71" t="n">
         <v>42</v>
@@ -10953,19 +9908,19 @@
         <v>1000000</v>
       </c>
       <c r="K71" t="n">
-        <v>5.7154</v>
+        <v>5.3331</v>
       </c>
       <c r="L71" t="n">
-        <v>14.3037</v>
+        <v>13.1602</v>
       </c>
       <c r="M71" t="n">
         <v>0.96607</v>
       </c>
       <c r="N71" t="n">
-        <v>408.4803</v>
+        <v>320.0669</v>
       </c>
       <c r="O71" t="n">
-        <v>0.023491</v>
+        <v>0.029694</v>
       </c>
       <c r="P71" t="n">
         <v>9.173299999999999</v>
@@ -11010,10 +9965,10 @@
         <v>0</v>
       </c>
       <c r="AD71" t="n">
-        <v>357700</v>
+        <v>339850</v>
       </c>
       <c r="AE71" t="n">
-        <v>350.01</v>
+        <v>323.31</v>
       </c>
       <c r="AF71" t="n">
         <v>0.22</v>
@@ -11058,10 +10013,10 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G72" t="n">
-        <v>-36.5</v>
+        <v>-33.5</v>
       </c>
       <c r="H72" t="n">
         <v>37</v>
@@ -11073,19 +10028,19 @@
         <v>1000000</v>
       </c>
       <c r="K72" t="n">
-        <v>6.2803</v>
+        <v>5.8463</v>
       </c>
       <c r="L72" t="n">
-        <v>14.1131</v>
+        <v>12.9696</v>
       </c>
       <c r="M72" t="n">
         <v>0.96607</v>
       </c>
       <c r="N72" t="n">
-        <v>697.4833</v>
+        <v>454.2648</v>
       </c>
       <c r="O72" t="n">
-        <v>0.014326</v>
+        <v>0.021367</v>
       </c>
       <c r="P72" t="n">
         <v>9.173299999999999</v>
@@ -11130,10 +10085,10 @@
         <v>0</v>
       </c>
       <c r="AD72" t="n">
-        <v>357700</v>
+        <v>339850</v>
       </c>
       <c r="AE72" t="n">
-        <v>350.01</v>
+        <v>323.31</v>
       </c>
       <c r="AF72" t="n">
         <v>0.22</v>
@@ -11178,10 +10133,10 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G73" t="n">
-        <v>-36.5</v>
+        <v>-33.5</v>
       </c>
       <c r="H73" t="n">
         <v>42</v>
@@ -11193,19 +10148,19 @@
         <v>1000000</v>
       </c>
       <c r="K73" t="n">
-        <v>5.6517</v>
+        <v>5.2693</v>
       </c>
       <c r="L73" t="n">
-        <v>14.1131</v>
+        <v>12.9696</v>
       </c>
       <c r="M73" t="n">
         <v>0.96607</v>
       </c>
       <c r="N73" t="n">
-        <v>390.502</v>
+        <v>308.9228</v>
       </c>
       <c r="O73" t="n">
-        <v>0.024525</v>
+        <v>0.030728</v>
       </c>
       <c r="P73" t="n">
         <v>9.173299999999999</v>
@@ -11250,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="AD73" t="n">
-        <v>357700</v>
+        <v>339850</v>
       </c>
       <c r="AE73" t="n">
-        <v>350.01</v>
+        <v>323.31</v>
       </c>
       <c r="AF73" t="n">
         <v>0.22</v>
@@ -11298,10 +10253,10 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G74" t="n">
-        <v>-36</v>
+        <v>-33</v>
       </c>
       <c r="H74" t="n">
         <v>37</v>
@@ -11313,19 +10268,19 @@
         <v>1000000</v>
       </c>
       <c r="K74" t="n">
-        <v>6.2079</v>
+        <v>5.7739</v>
       </c>
       <c r="L74" t="n">
-        <v>13.9225</v>
+        <v>12.779</v>
       </c>
       <c r="M74" t="n">
         <v>0.96607</v>
       </c>
       <c r="N74" t="n">
-        <v>640.3422</v>
+        <v>429.3139</v>
       </c>
       <c r="O74" t="n">
-        <v>0.015499</v>
+        <v>0.022541</v>
       </c>
       <c r="P74" t="n">
         <v>9.173299999999999</v>
@@ -11370,10 +10325,10 @@
         <v>0</v>
       </c>
       <c r="AD74" t="n">
-        <v>357700</v>
+        <v>339850</v>
       </c>
       <c r="AE74" t="n">
-        <v>350.01</v>
+        <v>323.31</v>
       </c>
       <c r="AF74" t="n">
         <v>0.22</v>
@@ -11418,10 +10373,10 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G75" t="n">
-        <v>-36</v>
+        <v>-33</v>
       </c>
       <c r="H75" t="n">
         <v>42</v>
@@ -11433,19 +10388,19 @@
         <v>1000000</v>
       </c>
       <c r="K75" t="n">
-        <v>5.5879</v>
+        <v>5.2056</v>
       </c>
       <c r="L75" t="n">
-        <v>13.9225</v>
+        <v>12.779</v>
       </c>
       <c r="M75" t="n">
         <v>0.96607</v>
       </c>
       <c r="N75" t="n">
-        <v>374.0395</v>
+        <v>298.5286</v>
       </c>
       <c r="O75" t="n">
-        <v>0.025559</v>
+        <v>0.031762</v>
       </c>
       <c r="P75" t="n">
         <v>9.173299999999999</v>
@@ -11490,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="AD75" t="n">
-        <v>357700</v>
+        <v>339850</v>
       </c>
       <c r="AE75" t="n">
-        <v>350.01</v>
+        <v>323.31</v>
       </c>
       <c r="AF75" t="n">
         <v>0.22</v>
@@ -11538,10 +10493,10 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G76" t="n">
-        <v>-42</v>
+        <v>-38.5</v>
       </c>
       <c r="H76" t="n">
         <v>42</v>
@@ -11553,19 +10508,19 @@
         <v>1000000</v>
       </c>
       <c r="K76" t="n">
-        <v>6.3526</v>
+        <v>5.9065</v>
       </c>
       <c r="L76" t="n">
-        <v>16.2096</v>
+        <v>14.8755</v>
       </c>
       <c r="M76" t="n">
         <v>0.96607</v>
       </c>
       <c r="N76" t="n">
-        <v>708.6245</v>
+        <v>473.9394</v>
       </c>
       <c r="O76" t="n">
-        <v>0.013152</v>
+        <v>0.020389</v>
       </c>
       <c r="P76" t="n">
         <v>9.173299999999999</v>
@@ -11610,10 +10565,10 @@
         <v>0</v>
       </c>
       <c r="AD76" t="n">
-        <v>375550</v>
+        <v>357700</v>
       </c>
       <c r="AE76" t="n">
-        <v>376.71</v>
+        <v>350.01</v>
       </c>
       <c r="AF76" t="n">
         <v>0.22</v>
@@ -11658,10 +10613,10 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G77" t="n">
-        <v>-41.5</v>
+        <v>-38</v>
       </c>
       <c r="H77" t="n">
         <v>42</v>
@@ -11673,19 +10628,19 @@
         <v>1000000</v>
       </c>
       <c r="K77" t="n">
-        <v>6.2889</v>
+        <v>5.8428</v>
       </c>
       <c r="L77" t="n">
-        <v>16.019</v>
+        <v>14.6849</v>
       </c>
       <c r="M77" t="n">
         <v>0.96607</v>
       </c>
       <c r="N77" t="n">
-        <v>697.4833</v>
+        <v>449.9068</v>
       </c>
       <c r="O77" t="n">
-        <v>0.014186</v>
+        <v>0.021423</v>
       </c>
       <c r="P77" t="n">
         <v>9.173299999999999</v>
@@ -11730,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="AD77" t="n">
-        <v>375550</v>
+        <v>357700</v>
       </c>
       <c r="AE77" t="n">
-        <v>376.71</v>
+        <v>350.01</v>
       </c>
       <c r="AF77" t="n">
         <v>0.22</v>
@@ -11778,10 +10733,10 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G78" t="n">
-        <v>-41</v>
+        <v>-37.5</v>
       </c>
       <c r="H78" t="n">
         <v>42</v>
@@ -11793,19 +10748,19 @@
         <v>1000000</v>
       </c>
       <c r="K78" t="n">
-        <v>6.2252</v>
+        <v>5.7791</v>
       </c>
       <c r="L78" t="n">
-        <v>15.8285</v>
+        <v>14.4943</v>
       </c>
       <c r="M78" t="n">
         <v>0.96607</v>
       </c>
       <c r="N78" t="n">
-        <v>646.6489</v>
+        <v>428.1939</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01522</v>
+        <v>0.022457</v>
       </c>
       <c r="P78" t="n">
         <v>9.173299999999999</v>
@@ -11850,10 +10805,10 @@
         <v>0</v>
       </c>
       <c r="AD78" t="n">
-        <v>375550</v>
+        <v>357700</v>
       </c>
       <c r="AE78" t="n">
-        <v>376.71</v>
+        <v>350.01</v>
       </c>
       <c r="AF78" t="n">
         <v>0.22</v>
@@ -11898,13 +10853,13 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G79" t="n">
-        <v>-40.5</v>
+        <v>-37</v>
       </c>
       <c r="H79" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I79" t="n">
         <v>9.9</v>
@@ -11913,19 +10868,19 @@
         <v>1000000</v>
       </c>
       <c r="K79" t="n">
-        <v>6.1614</v>
+        <v>6.3526</v>
       </c>
       <c r="L79" t="n">
-        <v>15.6379</v>
+        <v>14.3037</v>
       </c>
       <c r="M79" t="n">
         <v>0.96607</v>
       </c>
       <c r="N79" t="n">
-        <v>602.7211</v>
+        <v>710.1575</v>
       </c>
       <c r="O79" t="n">
-        <v>0.016254</v>
+        <v>0.013152</v>
       </c>
       <c r="P79" t="n">
         <v>9.173299999999999</v>
@@ -11970,10 +10925,10 @@
         <v>0</v>
       </c>
       <c r="AD79" t="n">
-        <v>375550</v>
+        <v>357700</v>
       </c>
       <c r="AE79" t="n">
-        <v>376.71</v>
+        <v>350.01</v>
       </c>
       <c r="AF79" t="n">
         <v>0.22</v>
@@ -12018,10 +10973,10 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G80" t="n">
-        <v>-40</v>
+        <v>-37</v>
       </c>
       <c r="H80" t="n">
         <v>42</v>
@@ -12033,19 +10988,19 @@
         <v>1000000</v>
       </c>
       <c r="K80" t="n">
-        <v>6.0977</v>
+        <v>5.7154</v>
       </c>
       <c r="L80" t="n">
-        <v>15.4473</v>
+        <v>14.3037</v>
       </c>
       <c r="M80" t="n">
         <v>0.96607</v>
       </c>
       <c r="N80" t="n">
-        <v>564.3818</v>
+        <v>408.4803</v>
       </c>
       <c r="O80" t="n">
-        <v>0.017288</v>
+        <v>0.023491</v>
       </c>
       <c r="P80" t="n">
         <v>9.173299999999999</v>
@@ -12090,10 +11045,10 @@
         <v>0</v>
       </c>
       <c r="AD80" t="n">
-        <v>375550</v>
+        <v>357700</v>
       </c>
       <c r="AE80" t="n">
-        <v>376.71</v>
+        <v>350.01</v>
       </c>
       <c r="AF80" t="n">
         <v>0.22</v>
@@ -12138,13 +11093,13 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G81" t="n">
-        <v>-39.5</v>
+        <v>-36.5</v>
       </c>
       <c r="H81" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I81" t="n">
         <v>9.9</v>
@@ -12153,19 +11108,19 @@
         <v>1000000</v>
       </c>
       <c r="K81" t="n">
-        <v>6.034</v>
+        <v>6.2803</v>
       </c>
       <c r="L81" t="n">
-        <v>15.2567</v>
+        <v>14.1131</v>
       </c>
       <c r="M81" t="n">
         <v>0.96607</v>
       </c>
       <c r="N81" t="n">
-        <v>530.6283</v>
+        <v>697.4833</v>
       </c>
       <c r="O81" t="n">
-        <v>0.018322</v>
+        <v>0.014326</v>
       </c>
       <c r="P81" t="n">
         <v>9.173299999999999</v>
@@ -12210,10 +11165,10 @@
         <v>0</v>
       </c>
       <c r="AD81" t="n">
-        <v>375550</v>
+        <v>357700</v>
       </c>
       <c r="AE81" t="n">
-        <v>376.71</v>
+        <v>350.01</v>
       </c>
       <c r="AF81" t="n">
         <v>0.22</v>
@@ -12258,10 +11213,10 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G82" t="n">
-        <v>-39</v>
+        <v>-36.5</v>
       </c>
       <c r="H82" t="n">
         <v>42</v>
@@ -12273,19 +11228,19 @@
         <v>1000000</v>
       </c>
       <c r="K82" t="n">
-        <v>5.9703</v>
+        <v>5.6517</v>
       </c>
       <c r="L82" t="n">
-        <v>15.0661</v>
+        <v>14.1131</v>
       </c>
       <c r="M82" t="n">
         <v>0.96607</v>
       </c>
       <c r="N82" t="n">
-        <v>500.6843</v>
+        <v>390.502</v>
       </c>
       <c r="O82" t="n">
-        <v>0.019355</v>
+        <v>0.024525</v>
       </c>
       <c r="P82" t="n">
         <v>9.173299999999999</v>
@@ -12330,10 +11285,10 @@
         <v>0</v>
       </c>
       <c r="AD82" t="n">
-        <v>375550</v>
+        <v>357700</v>
       </c>
       <c r="AE82" t="n">
-        <v>376.71</v>
+        <v>350.01</v>
       </c>
       <c r="AF82" t="n">
         <v>0.22</v>
@@ -12348,6 +11303,1086 @@
         <v>0.92663</v>
       </c>
       <c r="AJ82" t="inlineStr">
+        <is>
+          <t>B_FC15.1_OCR1_DR69_undrained</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>PH1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>GHS</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Empire_Wind_1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>19</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-36</v>
+      </c>
+      <c r="H83" t="n">
+        <v>37</v>
+      </c>
+      <c r="I83" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="K83" t="n">
+        <v>6.2079</v>
+      </c>
+      <c r="L83" t="n">
+        <v>13.9225</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.96607</v>
+      </c>
+      <c r="N83" t="n">
+        <v>640.3422</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.015499</v>
+      </c>
+      <c r="P83" t="n">
+        <v>9.173299999999999</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.9968900000000001</v>
+      </c>
+      <c r="R83" t="n">
+        <v>919407.0862</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.027942</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.0039568</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.37576</v>
+      </c>
+      <c r="V83" t="n">
+        <v>249215.558</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0.012141</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.005996</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0.40183</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>357700</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>350.01</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>0.92663</v>
+      </c>
+      <c r="AJ83" t="inlineStr">
+        <is>
+          <t>B_FC15.1_OCR1_DR69_undrained</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PH1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>GHS</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Empire_Wind_1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>19</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-36</v>
+      </c>
+      <c r="H84" t="n">
+        <v>42</v>
+      </c>
+      <c r="I84" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="K84" t="n">
+        <v>5.5879</v>
+      </c>
+      <c r="L84" t="n">
+        <v>13.9225</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.96607</v>
+      </c>
+      <c r="N84" t="n">
+        <v>374.0395</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.025559</v>
+      </c>
+      <c r="P84" t="n">
+        <v>9.173299999999999</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.9968900000000001</v>
+      </c>
+      <c r="R84" t="n">
+        <v>919407.0862</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.027942</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.0039568</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.37576</v>
+      </c>
+      <c r="V84" t="n">
+        <v>249215.558</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0.012141</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.005996</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0.40183</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>357700</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>350.01</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>0.92663</v>
+      </c>
+      <c r="AJ84" t="inlineStr">
+        <is>
+          <t>B_FC15.1_OCR1_DR69_undrained</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PH1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>GHS</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Empire_Wind_1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>20</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-42</v>
+      </c>
+      <c r="H85" t="n">
+        <v>42</v>
+      </c>
+      <c r="I85" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="K85" t="n">
+        <v>6.3526</v>
+      </c>
+      <c r="L85" t="n">
+        <v>16.2096</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.96607</v>
+      </c>
+      <c r="N85" t="n">
+        <v>708.6245</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.013152</v>
+      </c>
+      <c r="P85" t="n">
+        <v>9.173299999999999</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.9968900000000001</v>
+      </c>
+      <c r="R85" t="n">
+        <v>919407.0862</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.027942</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.0039568</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0.37576</v>
+      </c>
+      <c r="V85" t="n">
+        <v>249215.558</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0.012141</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.005996</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0.40183</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>375550</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>376.71</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>0.92663</v>
+      </c>
+      <c r="AJ85" t="inlineStr">
+        <is>
+          <t>B_FC15.1_OCR1_DR69_undrained</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PH1</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>GHS</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Empire_Wind_1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>20</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-41.5</v>
+      </c>
+      <c r="H86" t="n">
+        <v>42</v>
+      </c>
+      <c r="I86" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="K86" t="n">
+        <v>6.2889</v>
+      </c>
+      <c r="L86" t="n">
+        <v>16.019</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.96607</v>
+      </c>
+      <c r="N86" t="n">
+        <v>697.4833</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.014186</v>
+      </c>
+      <c r="P86" t="n">
+        <v>9.173299999999999</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.9968900000000001</v>
+      </c>
+      <c r="R86" t="n">
+        <v>919407.0862</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.027942</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.0039568</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.37576</v>
+      </c>
+      <c r="V86" t="n">
+        <v>249215.558</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0.012141</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.005996</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0.40183</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>375550</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>376.71</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>0.92663</v>
+      </c>
+      <c r="AJ86" t="inlineStr">
+        <is>
+          <t>B_FC15.1_OCR1_DR69_undrained</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PH1</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>GHS</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Empire_Wind_1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>20</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-41</v>
+      </c>
+      <c r="H87" t="n">
+        <v>42</v>
+      </c>
+      <c r="I87" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="K87" t="n">
+        <v>6.2252</v>
+      </c>
+      <c r="L87" t="n">
+        <v>15.8285</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.96607</v>
+      </c>
+      <c r="N87" t="n">
+        <v>646.6489</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.01522</v>
+      </c>
+      <c r="P87" t="n">
+        <v>9.173299999999999</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.9968900000000001</v>
+      </c>
+      <c r="R87" t="n">
+        <v>919407.0862</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.027942</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.0039568</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.37576</v>
+      </c>
+      <c r="V87" t="n">
+        <v>249215.558</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0.012141</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.005996</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0.40183</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>375550</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>376.71</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>0.92663</v>
+      </c>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>B_FC15.1_OCR1_DR69_undrained</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PH1</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>GHS</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Empire_Wind_1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>20</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-40.5</v>
+      </c>
+      <c r="H88" t="n">
+        <v>42</v>
+      </c>
+      <c r="I88" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="K88" t="n">
+        <v>6.1614</v>
+      </c>
+      <c r="L88" t="n">
+        <v>15.6379</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.96607</v>
+      </c>
+      <c r="N88" t="n">
+        <v>602.7211</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.016254</v>
+      </c>
+      <c r="P88" t="n">
+        <v>9.173299999999999</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.9968900000000001</v>
+      </c>
+      <c r="R88" t="n">
+        <v>919407.0862</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.027942</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.0039568</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.37576</v>
+      </c>
+      <c r="V88" t="n">
+        <v>249215.558</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0.012141</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.005996</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0.40183</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>375550</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>376.71</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>0.92663</v>
+      </c>
+      <c r="AJ88" t="inlineStr">
+        <is>
+          <t>B_FC15.1_OCR1_DR69_undrained</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PH1</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>GHS</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Empire_Wind_1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>20</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-40</v>
+      </c>
+      <c r="H89" t="n">
+        <v>42</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="K89" t="n">
+        <v>6.0977</v>
+      </c>
+      <c r="L89" t="n">
+        <v>15.4473</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.96607</v>
+      </c>
+      <c r="N89" t="n">
+        <v>564.3818</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.017288</v>
+      </c>
+      <c r="P89" t="n">
+        <v>9.173299999999999</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.9968900000000001</v>
+      </c>
+      <c r="R89" t="n">
+        <v>919407.0862</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.027942</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.0039568</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.37576</v>
+      </c>
+      <c r="V89" t="n">
+        <v>249215.558</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0.012141</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.005996</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0.40183</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>375550</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>376.71</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>0.92663</v>
+      </c>
+      <c r="AJ89" t="inlineStr">
+        <is>
+          <t>B_FC15.1_OCR1_DR69_undrained</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PH1</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>GHS</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Empire_Wind_1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>20</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-39.5</v>
+      </c>
+      <c r="H90" t="n">
+        <v>42</v>
+      </c>
+      <c r="I90" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="K90" t="n">
+        <v>6.034</v>
+      </c>
+      <c r="L90" t="n">
+        <v>15.2567</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.96607</v>
+      </c>
+      <c r="N90" t="n">
+        <v>530.6283</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.018322</v>
+      </c>
+      <c r="P90" t="n">
+        <v>9.173299999999999</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.9968900000000001</v>
+      </c>
+      <c r="R90" t="n">
+        <v>919407.0862</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.027942</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.0039568</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.37576</v>
+      </c>
+      <c r="V90" t="n">
+        <v>249215.558</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0.012141</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.005996</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0.40183</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>375550</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>376.71</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>0.92663</v>
+      </c>
+      <c r="AJ90" t="inlineStr">
+        <is>
+          <t>B_FC15.1_OCR1_DR69_undrained</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>PH1</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>GHS</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Empire_Wind_1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>20</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-39</v>
+      </c>
+      <c r="H91" t="n">
+        <v>42</v>
+      </c>
+      <c r="I91" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="K91" t="n">
+        <v>5.9703</v>
+      </c>
+      <c r="L91" t="n">
+        <v>15.0661</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.96607</v>
+      </c>
+      <c r="N91" t="n">
+        <v>500.6843</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.019355</v>
+      </c>
+      <c r="P91" t="n">
+        <v>9.173299999999999</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.9968900000000001</v>
+      </c>
+      <c r="R91" t="n">
+        <v>919407.0862</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.027942</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.0039568</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.37576</v>
+      </c>
+      <c r="V91" t="n">
+        <v>249215.558</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0.012141</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.005996</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0.40183</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>375550</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>376.71</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>0.92663</v>
+      </c>
+      <c r="AJ91" t="inlineStr">
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>

--- a/regression/Plots_PH1_2022-06-10/Regression_parameters.xlsx
+++ b/regression/Plots_PH1_2022-06-10/Regression_parameters.xlsx
@@ -1578,13 +1578,13 @@
         </is>
       </c>
       <c r="AR5" t="n">
-        <v>-4.880510354374826</v>
+        <v>4.059857619533594</v>
       </c>
       <c r="AS5" t="n">
-        <v>12.08767024190333</v>
+        <v>2.861469442540375e-21</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>58.90026371088006</v>
       </c>
       <c r="AU5" t="n">
         <v>1</v>
@@ -1616,16 +1616,16 @@
       </c>
       <c r="BE5" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="BH5" t="n">
-        <v>0.886560074781514</v>
+        <v>1.328938288177248</v>
       </c>
     </row>
     <row r="6">
@@ -1753,16 +1753,16 @@
         </is>
       </c>
       <c r="AR6" t="n">
-        <v>92.07995745730085</v>
+        <v>-4.880510354374826</v>
       </c>
       <c r="AS6" t="n">
-        <v>-146.8467431695306</v>
+        <v>12.08767024190333</v>
       </c>
       <c r="AT6" t="n">
-        <v>-97.04584448318346</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
-        <v>164.7737964312615</v>
+        <v>1</v>
       </c>
       <c r="AV6" t="n">
         <v>1</v>
@@ -1791,16 +1791,16 @@
       </c>
       <c r="BE6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BF6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="BH6" t="n">
-        <v>0.5046251301584253</v>
+        <v>0.886560074781514</v>
       </c>
     </row>
     <row r="7">
@@ -1928,16 +1928,16 @@
         </is>
       </c>
       <c r="AR7" t="n">
-        <v>0.7338967599833205</v>
+        <v>92.07995745730085</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.1972670261076105</v>
+        <v>-146.8467431695306</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.616928327498513</v>
+        <v>-97.04584448318346</v>
       </c>
       <c r="AU7" t="n">
-        <v>1</v>
+        <v>164.7737964312615</v>
       </c>
       <c r="AV7" t="n">
         <v>1</v>
@@ -1966,16 +1966,16 @@
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BH7" t="n">
-        <v>0.7902592927374807</v>
+        <v>0.5046251301584253</v>
       </c>
     </row>
     <row r="8">
@@ -2103,22 +2103,22 @@
         </is>
       </c>
       <c r="AR8" t="n">
-        <v>35.75981871605691</v>
+        <v>0.7338967599833205</v>
       </c>
       <c r="AS8" t="n">
-        <v>-52.55576025282894</v>
+        <v>0.1972670261076105</v>
       </c>
       <c r="AT8" t="n">
-        <v>-0.2710479656272216</v>
+        <v>3.616928327498513</v>
       </c>
       <c r="AU8" t="n">
-        <v>1.078950164204641</v>
+        <v>1</v>
       </c>
       <c r="AV8" t="n">
-        <v>-4.749875425753947</v>
+        <v>1</v>
       </c>
       <c r="AW8" t="n">
-        <v>9.866387518845828</v>
+        <v>1</v>
       </c>
       <c r="AX8" t="n">
         <v>1</v>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="BH8" t="n">
-        <v>0.06273205538254371</v>
+        <v>0.7902592927374807</v>
       </c>
     </row>
     <row r="9">
@@ -2278,22 +2278,22 @@
         </is>
       </c>
       <c r="AR9" t="n">
-        <v>4.4573516854008</v>
+        <v>35.75981871605691</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>-52.55576025282894</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>-0.2710479656272216</v>
       </c>
       <c r="AU9" t="n">
-        <v>1</v>
+        <v>1.078950164204641</v>
       </c>
       <c r="AV9" t="n">
-        <v>1</v>
+        <v>-4.749875425753947</v>
       </c>
       <c r="AW9" t="n">
-        <v>1</v>
+        <v>9.866387518845828</v>
       </c>
       <c r="AX9" t="n">
         <v>1</v>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>tan_phi</t>
+          <t>Dr</t>
         </is>
       </c>
       <c r="BC9" t="inlineStr">
@@ -2316,16 +2316,16 @@
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BH9" t="n">
-        <v>2.723503620974602</v>
+        <v>0.06273205538254371</v>
       </c>
     </row>
     <row r="10">
@@ -2453,10 +2453,10 @@
         </is>
       </c>
       <c r="AR10" t="n">
-        <v>-90.06936959825512</v>
+        <v>4.4573516854008</v>
       </c>
       <c r="AS10" t="n">
-        <v>166.4826711756099</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="BH10" t="n">
-        <v>0.2556197613510633</v>
+        <v>2.723503620974602</v>
       </c>
     </row>
     <row r="11">
@@ -2628,10 +2628,10 @@
         </is>
       </c>
       <c r="AR11" t="n">
-        <v>-4.880510354374826</v>
+        <v>-90.06936959825512</v>
       </c>
       <c r="AS11" t="n">
-        <v>12.08767024190333</v>
+        <v>166.4826711756099</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -2666,16 +2666,16 @@
       </c>
       <c r="BE11" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BF11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="BH11" t="n">
-        <v>0.886560074781514</v>
+        <v>0.2556197613510633</v>
       </c>
     </row>
     <row r="12">
@@ -2803,16 +2803,16 @@
         </is>
       </c>
       <c r="AR12" t="n">
-        <v>109.3986263993442</v>
+        <v>-0.370730212354445</v>
       </c>
       <c r="AS12" t="n">
-        <v>-190.6770910320547</v>
+        <v>2.703917636572826e-08</v>
       </c>
       <c r="AT12" t="n">
-        <v>-231.3277843654793</v>
+        <v>33.29778267972279</v>
       </c>
       <c r="AU12" t="n">
-        <v>413.4344362464644</v>
+        <v>1</v>
       </c>
       <c r="AV12" t="n">
         <v>1</v>
@@ -2841,16 +2841,16 @@
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BH12" t="n">
-        <v>0.0814159662904233</v>
+        <v>0.05366138066021946</v>
       </c>
     </row>
     <row r="13">
@@ -2978,13 +2978,13 @@
         </is>
       </c>
       <c r="AR13" t="n">
-        <v>0.7338967599833205</v>
+        <v>-4.880510354374826</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.1972670261076105</v>
+        <v>12.08767024190333</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.616928327498513</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>1</v>
@@ -3021,11 +3021,11 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BH13" t="n">
-        <v>0.7902592927374807</v>
+        <v>0.886560074781514</v>
       </c>
     </row>
     <row r="14">
@@ -3147,6 +3147,61 @@
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
       </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>Pu</t>
+        </is>
+      </c>
+      <c r="AR14" t="n">
+        <v>109.3986263993442</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>-190.6770910320547</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>-231.3277843654793</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>413.4344362464644</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>tan_phi</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>z_L</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BH14" t="n">
+        <v>0.0814159662904233</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3266,6 +3321,61 @@
         <is>
           <t>B_FC15.1_OCR1_DR69_undrained</t>
         </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>Pu</t>
+        </is>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.7338967599833205</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.1972670261076105</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.616928327498513</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>tan_phi</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>z_L</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.7902592927374807</v>
       </c>
     </row>
     <row r="16">
